--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F80D10BB-AE8F-4F68-8788-14AEAED51D46}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5C4FA41-A7EE-4125-8989-8D3B8B11DDFD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3999" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1846">
   <si>
     <t>행정기관</t>
   </si>
@@ -5010,10 +5010,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>41280</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>41290</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5812,6 +5808,22 @@
   </si>
   <si>
     <t>short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕양구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일산동구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일산서구</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6276,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -6311,7 +6323,7 @@
         <v>1609</v>
       </c>
       <c r="H1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10440,19 +10452,25 @@
         <f>VLOOKUP(B111,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>268088330</v>
       </c>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" t="str">
+      <c r="F111" t="e">
+        <f>VLOOKUP(A111,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G111" t="e">
+        <f>VLOOKUP(A111,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,3,FALSE)</f>
-        <v>고양</v>
-      </c>
-      <c r="I111" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경기도</v>
-      </c>
-      <c r="J111" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,8,FALSE)</f>
-        <v>고양시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -10477,17 +10495,14 @@
       <c r="G112" s="10">
         <v>1</v>
       </c>
-      <c r="H112" t="e">
-        <f>VLOOKUP(A112,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" t="e">
-        <f>VLOOKUP(A112,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J112" t="e">
-        <f>VLOOKUP(A112,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="H112" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1843</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -10512,17 +10527,14 @@
       <c r="G113" s="10">
         <v>1</v>
       </c>
-      <c r="H113" t="e">
-        <f>VLOOKUP(A113,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" t="e">
-        <f>VLOOKUP(A113,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J113" t="e">
-        <f>VLOOKUP(A113,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="H113" t="s">
+        <v>1844</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1843</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1844</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -10547,17 +10559,14 @@
       <c r="G114" s="10">
         <v>1</v>
       </c>
-      <c r="H114" t="e">
-        <f>VLOOKUP(A114,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="e">
-        <f>VLOOKUP(A114,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J114" t="e">
-        <f>VLOOKUP(A114,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="H114" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1843</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1845</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -17338,7 +17347,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B2" t="s">
         <v>854</v>
@@ -17364,7 +17373,7 @@
         <v>559</v>
       </c>
       <c r="B3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -17384,7 +17393,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B4" t="s">
         <v>1080</v>
@@ -27521,8 +27530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28113,9 +28122,7 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>1641</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="7">
         <v>955384</v>
       </c>
@@ -28143,7 +28150,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C22" s="7">
         <v>63227</v>
@@ -28172,7 +28179,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C23" s="7">
         <v>327111</v>
@@ -28201,7 +28208,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C24" s="7">
         <v>290210</v>
@@ -28230,7 +28237,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C25" s="7">
         <v>175676</v>
@@ -28259,7 +28266,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C26" s="7">
         <v>273302</v>
@@ -28288,7 +28295,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C27" s="7">
         <v>326523</v>
@@ -28317,7 +28324,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C28" s="7">
         <v>610300</v>
@@ -28346,7 +28353,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C29" s="7">
         <v>90398</v>
@@ -28375,7 +28382,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C30" s="7">
         <v>805473</v>
@@ -28404,7 +28411,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C31" s="7">
         <v>911628</v>
@@ -28433,7 +28440,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C32" s="7">
         <v>1125461</v>
@@ -28462,7 +28469,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C33" s="7">
         <v>381412</v>
@@ -28491,7 +28498,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C34" s="7">
         <v>668089</v>
@@ -28520,7 +28527,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C35" s="7">
         <v>173061</v>
@@ -28549,7 +28556,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C36" s="7">
         <v>566558</v>
@@ -28578,7 +28585,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C37" s="7">
         <v>191266</v>
@@ -28607,7 +28614,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C38" s="7">
         <v>95614</v>
@@ -28636,7 +28643,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C39" s="7">
         <v>100669</v>
@@ -28665,7 +28672,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="C40" s="7">
         <v>41076</v>
@@ -28694,7 +28701,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="C41" s="7">
         <v>200793</v>
@@ -28723,7 +28730,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C42" s="7">
         <v>915005</v>
@@ -28752,7 +28759,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C43" s="7">
         <v>149080</v>
@@ -28781,7 +28788,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C44" s="7">
         <v>408220</v>
@@ -28810,7 +28817,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="C45" s="7">
         <v>190537</v>
@@ -28839,7 +28846,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C46" s="7">
         <v>385528</v>
@@ -28868,7 +28875,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="C47" s="7">
         <v>423763</v>
@@ -28897,7 +28904,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="C48" s="7">
         <v>140159</v>
@@ -28926,7 +28933,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="C49" s="7">
         <v>150061</v>
@@ -28955,7 +28962,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C50" s="7">
         <v>555129</v>
@@ -28984,7 +28991,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="C51" s="7">
         <v>240442</v>
@@ -29013,7 +29020,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="C52" s="7">
         <v>57384</v>
@@ -29042,7 +29049,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="C53" s="7">
         <v>49559</v>
@@ -29071,7 +29078,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C54" s="7">
         <v>500641</v>
@@ -29100,7 +29107,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C55" s="7">
         <v>41388</v>
@@ -29129,7 +29136,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C56" s="7">
         <v>97525</v>
@@ -29158,7 +29165,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C57" s="7">
         <v>106388</v>
@@ -29187,7 +29194,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="C58" s="7">
         <v>31983</v>
@@ -29216,7 +29223,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C59" s="7">
         <v>282278</v>
@@ -29245,7 +29252,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="C60" s="7">
         <v>25091</v>
@@ -29274,7 +29281,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C61" s="7">
         <v>330378</v>
@@ -29303,7 +29310,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="C62" s="7">
         <v>56734</v>
@@ -29332,7 +29339,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C63" s="7">
         <v>1010040</v>
@@ -29361,7 +29368,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="C64" s="7">
         <v>129599</v>
@@ -29390,7 +29397,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C65" s="7">
         <v>43029</v>
@@ -29419,7 +29426,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="C66" s="7">
         <v>63142</v>
@@ -29448,7 +29455,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C67" s="7">
         <v>36371</v>
@@ -29477,7 +29484,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C68" s="7">
         <v>42515</v>
@@ -29506,7 +29513,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="C69" s="7">
         <v>251220</v>
@@ -29535,7 +29542,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C70" s="7">
         <v>242618</v>
@@ -29564,7 +29571,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C71" s="7">
         <v>31189</v>
@@ -29593,7 +29600,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C72" s="7">
         <v>396685</v>
@@ -29622,7 +29629,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C73" s="7">
         <v>20596</v>
@@ -29651,7 +29658,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C74" s="7">
         <v>127941</v>
@@ -29680,7 +29687,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="C75" s="7">
         <v>67919</v>
@@ -29709,7 +29716,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C76" s="7">
         <v>30287</v>
@@ -29738,7 +29745,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C77" s="7">
         <v>93305</v>
@@ -29767,7 +29774,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C78" s="7">
         <v>38277</v>
@@ -29796,7 +29803,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C79" s="7">
         <v>157317</v>
@@ -29825,7 +29832,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C80" s="7">
         <v>34864</v>
@@ -29854,7 +29861,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="C81" s="7">
         <v>16009</v>
@@ -29883,7 +29890,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C82" s="7">
         <v>101612</v>
@@ -29912,7 +29919,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C83" s="7">
         <v>91214</v>
@@ -29941,7 +29948,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C84" s="7">
         <v>40779</v>
@@ -29970,7 +29977,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C85" s="7">
         <v>8392</v>
@@ -29999,7 +30006,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C86" s="7">
         <v>46748</v>
@@ -30028,7 +30035,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C87" s="7">
         <v>48776</v>
@@ -30057,7 +30064,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C88" s="7">
         <v>38571</v>
@@ -30086,7 +30093,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C89" s="7">
         <v>23804</v>
@@ -30115,7 +30122,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C90" s="7">
         <v>112446</v>
@@ -30144,7 +30151,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C91" s="7">
         <v>488395</v>
@@ -30173,7 +30180,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C92" s="7">
         <v>389386</v>
@@ -30202,7 +30209,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C93" s="7">
         <v>213743</v>
@@ -30231,7 +30238,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C94" s="7">
         <v>97571</v>
@@ -30260,7 +30267,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C95" s="7">
         <v>439683</v>
@@ -30289,7 +30296,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="C96" s="7">
         <v>297826</v>
@@ -30318,7 +30325,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C97" s="7">
         <v>154414</v>
@@ -30347,7 +30354,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C98" s="7">
         <v>584517</v>
@@ -30376,7 +30383,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C99" s="7">
         <v>178203</v>
@@ -30405,7 +30412,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C100" s="7">
         <v>330830</v>
@@ -30434,7 +30441,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C101" s="7">
         <v>431681</v>
@@ -30463,7 +30470,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="C102" s="7">
         <v>196378</v>
@@ -30492,7 +30499,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C103" s="7">
         <v>427477</v>
@@ -30521,7 +30528,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C104" s="7">
         <v>74950</v>
@@ -30550,7 +30557,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C105" s="7">
         <v>190815</v>
@@ -30579,7 +30586,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="C106" s="7">
         <v>236524</v>
@@ -30608,7 +30615,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="C107" s="7">
         <v>475094</v>
@@ -30637,7 +30644,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C108" s="7">
         <v>321618</v>
@@ -30666,7 +30673,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="C109" s="7">
         <v>243626</v>
@@ -30695,7 +30702,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="C110" s="7">
         <v>84722</v>
@@ -30724,7 +30731,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="C111" s="7">
         <v>235887</v>
@@ -30753,7 +30760,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="C112" s="7">
         <v>142223</v>
@@ -30782,7 +30789,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="C113" s="7">
         <v>271753</v>
@@ -30811,7 +30818,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C114" s="7">
         <v>85952</v>
@@ -30840,7 +30847,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C115" s="7">
         <v>256584</v>
@@ -30869,7 +30876,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="C116" s="7">
         <v>365721</v>
@@ -30898,7 +30905,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C117" s="7">
         <v>292375</v>
@@ -30927,7 +30934,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C118" s="7">
         <v>228824</v>
@@ -30956,7 +30963,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C119" s="7">
         <v>322757</v>
@@ -30985,7 +30992,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C120" s="7">
         <v>107107</v>
@@ -31014,7 +31021,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C121" s="7">
         <v>168618</v>
@@ -31043,7 +31050,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C122" s="7">
         <v>198383</v>
@@ -31072,7 +31079,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C123" s="7">
         <v>122446</v>
@@ -31101,7 +31108,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C124" s="7">
         <v>43105</v>
@@ -31130,7 +31137,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C125" s="7">
         <v>397134</v>
@@ -31159,7 +31166,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C126" s="7">
         <v>526157</v>
@@ -31188,7 +31195,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C127" s="7">
         <v>432028</v>
@@ -31217,7 +31224,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C128" s="7">
         <v>310292</v>
@@ -31246,7 +31253,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C129" s="7">
         <v>554709</v>
@@ -31275,7 +31282,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C130" s="7">
         <v>484478</v>
@@ -31304,7 +31311,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C131" s="7">
         <v>342909</v>
@@ -31333,7 +31340,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C132" s="7">
         <v>401233</v>
@@ -31362,7 +31369,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C133" s="7">
         <v>222566</v>
@@ -31391,7 +31398,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C134" s="7">
         <v>547202</v>
@@ -31420,7 +31427,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C135" s="7">
         <v>331682</v>
@@ -31449,7 +31456,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C136" s="7">
         <v>342429</v>
@@ -31478,7 +31485,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C137" s="7">
         <v>383917</v>
@@ -31507,7 +31514,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C138" s="7">
         <v>364232</v>
@@ -31536,7 +31543,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C139" s="7">
         <v>288543</v>
@@ -31565,7 +31572,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C140" s="7">
         <v>407416</v>
@@ -31594,7 +31601,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C141" s="7">
         <v>279939</v>
@@ -31623,7 +31630,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C142" s="7">
         <v>434061</v>
@@ -31652,7 +31659,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C143" s="7">
         <v>615487</v>
@@ -31681,7 +31688,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C144" s="7">
         <v>453634</v>
@@ -31710,7 +31717,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C145" s="7">
         <v>351837</v>
@@ -32029,7 +32036,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C156" s="7">
         <v>229589</v>
@@ -32058,7 +32065,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C157" s="7">
         <v>58296</v>
@@ -32087,7 +32094,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C158" s="7">
         <v>317785</v>
@@ -32116,7 +32123,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C159" s="7">
         <v>388535</v>
@@ -32145,7 +32152,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C160" s="7">
         <v>505791</v>
@@ -32174,7 +32181,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C161" s="7">
         <v>68950</v>
@@ -32203,7 +32210,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C162" s="7">
         <v>527153</v>
@@ -32232,7 +32239,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C163" s="7">
         <v>477567</v>
@@ -32261,7 +32268,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C164" s="7">
         <v>299734</v>
@@ -32290,7 +32297,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C165" s="7">
         <v>17735</v>
@@ -32319,7 +32326,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C166" s="7">
         <v>105029</v>
@@ -32348,7 +32355,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C167" s="7">
         <v>33413</v>
@@ -32377,7 +32384,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C168" s="7">
         <v>59975</v>
@@ -32406,7 +32413,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C169" s="7">
         <v>26245</v>
@@ -32435,7 +32442,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C170" s="7">
         <v>138071</v>
@@ -32464,7 +32471,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C171" s="7">
         <v>23189</v>
@@ -32493,7 +32500,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C172" s="7">
         <v>85081</v>
@@ -32522,7 +32529,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C173" s="7">
         <v>39718</v>
@@ -32551,7 +32558,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C174" s="7">
         <v>229134</v>
@@ -32580,7 +32587,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C175" s="7">
         <v>72905</v>
@@ -32609,7 +32616,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C176" s="7">
         <v>38705</v>
@@ -32638,7 +32645,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C177" s="7">
         <v>254751</v>
@@ -32667,7 +32674,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C178" s="7">
         <v>34396</v>
@@ -32696,7 +32703,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C179" s="7">
         <v>263166</v>
@@ -32725,7 +32732,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C180" s="7">
         <v>48141</v>
@@ -32754,7 +32761,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C181" s="7">
         <v>52823</v>
@@ -32783,7 +32790,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C182" s="7">
         <v>45985</v>
@@ -32812,7 +32819,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C183" s="7">
         <v>38578</v>
@@ -32841,7 +32848,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C184" s="7">
         <v>35397</v>
@@ -32870,7 +32877,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C185" s="7">
         <v>28133</v>
@@ -32899,7 +32906,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C186" s="7">
         <v>29242</v>
@@ -32928,7 +32935,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C187" s="7">
         <v>65184</v>
@@ -32957,7 +32964,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C188" s="7">
         <v>58331</v>
@@ -32986,7 +32993,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C189" s="7">
         <v>51887</v>
@@ -33015,7 +33022,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C190" s="7">
         <v>259094</v>
@@ -33044,7 +33051,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C191" s="7">
         <v>78991</v>
@@ -33073,7 +33080,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C192" s="7">
         <v>76854</v>
@@ -33102,7 +33109,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C193" s="7">
         <v>22417</v>
@@ -33131,7 +33138,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C194" s="7">
         <v>49980</v>
@@ -33160,7 +33167,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C195" s="7">
         <v>25542</v>
@@ -33189,7 +33196,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C196" s="7">
         <v>87465</v>
@@ -33218,7 +33225,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C197" s="7">
         <v>284421</v>
@@ -33247,7 +33254,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C198" s="7">
         <v>24973</v>
@@ -33276,7 +33283,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C199" s="7">
         <v>20492</v>
@@ -33305,7 +33312,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C200" s="7">
         <v>630708</v>
@@ -33334,7 +33341,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C201" s="7">
         <v>104307</v>
@@ -33363,7 +33370,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C202" s="7">
         <v>21917</v>
@@ -33392,7 +33399,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C203" s="7">
         <v>145369</v>
@@ -33421,7 +33428,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C204" s="7">
         <v>430504</v>
@@ -33450,7 +33457,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C205" s="7">
         <v>37690</v>
@@ -33479,7 +33486,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C206" s="7">
         <v>102371</v>
@@ -33508,7 +33515,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C207" s="7">
         <v>51134</v>
@@ -33537,7 +33544,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C208" s="7">
         <v>112516</v>
@@ -33566,7 +33573,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C209" s="7">
         <v>153415</v>
@@ -33595,7 +33602,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C210" s="7">
         <v>96133</v>
@@ -33624,7 +33631,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C211" s="7">
         <v>64652</v>
@@ -33653,7 +33660,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C212" s="7">
         <v>158771</v>
@@ -33682,7 +33689,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C213" s="7">
         <v>51776</v>
@@ -33711,7 +33718,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C214" s="7">
         <v>281938</v>
@@ -33740,7 +33747,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C215" s="7">
         <v>76757</v>
@@ -33769,7 +33776,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C216" s="7">
         <v>584912</v>
@@ -33798,7 +33805,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C217" s="7">
         <v>29671</v>
@@ -33827,7 +33834,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C218" s="7">
         <v>56489</v>
@@ -33856,7 +33863,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C219" s="7">
         <v>87904</v>
@@ -33885,7 +33892,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C220" s="7">
         <v>33297</v>
@@ -33914,7 +33921,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C221" s="7">
         <v>27130</v>
@@ -33943,7 +33950,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C222" s="7">
         <v>30685</v>
@@ -33972,7 +33979,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C223" s="7">
         <v>46524</v>
@@ -34001,7 +34008,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C224" s="7">
         <v>47599</v>
@@ -34030,7 +34037,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C225" s="7">
         <v>86441</v>
@@ -34059,7 +34066,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C226" s="7">
         <v>127462</v>
@@ -34088,7 +34095,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C227" s="7">
         <v>34480</v>
@@ -34117,7 +34124,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C228" s="7">
         <v>62809</v>
@@ -34146,7 +34153,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C229" s="7">
         <v>790216</v>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5C4FA41-A7EE-4125-8989-8D3B8B11DDFD}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD41EC48-63BC-4648-A709-A938764933AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="1848">
   <si>
     <t>행정기관</t>
   </si>
@@ -5824,6 +5824,14 @@
   </si>
   <si>
     <t>일산서구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정구역</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5923,7 +5931,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5933,11 +5941,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5962,19 +5967,15 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준_Sheet2" xfId="2" xr:uid="{B9004B97-AD21-44B5-BC07-A15DFE190D71}"/>
-    <cellStyle name="표준_주민등록 인구 및 세대현황" xfId="3" xr:uid="{2CCECD69-7D44-4487-AA0C-4D3FC8AE10B7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6288,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -6325,6 +6326,12 @@
       <c r="H1" t="s">
         <v>1841</v>
       </c>
+      <c r="I1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1847</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -8357,10 +8364,12 @@
         <f>VLOOKUP(B55,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>140286900</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55">
+        <f>VLOOKUP(A55,map!$B$1:$I$230,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55">
+        <f>VLOOKUP(A55,map!$B$1:$I$230,5,FALSE)</f>
         <v>7</v>
       </c>
       <c r="H55" t="str">
@@ -8393,10 +8402,12 @@
         <f>VLOOKUP(B56,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G56" s="10" t="e">
+      <c r="F56" t="e">
+        <f>VLOOKUP(A56,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G56" t="e">
+        <f>VLOOKUP(A56,map!$B$1:$I$230,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H56" t="e">
@@ -8429,10 +8440,12 @@
         <f>VLOOKUP(B57,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G57" s="10" t="e">
+      <c r="F57" t="e">
+        <f>VLOOKUP(A57,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G57" t="e">
+        <f>VLOOKUP(A57,map!$B$1:$I$230,5,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H57" t="e">
@@ -8465,10 +8478,12 @@
         <f>VLOOKUP(B58,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>7194831</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58">
+        <f>VLOOKUP(A58,map!$B$1:$I$230,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58">
+        <f>VLOOKUP(A58,map!$B$1:$I$230,5,FALSE)</f>
         <v>5</v>
       </c>
       <c r="H58" t="str">
@@ -8501,10 +8516,12 @@
         <f>VLOOKUP(B59,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>24835030</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59">
+        <f>VLOOKUP(A59,map!$B$1:$I$230,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59">
+        <f>VLOOKUP(A59,map!$B$1:$I$230,5,FALSE)</f>
         <v>7</v>
       </c>
       <c r="H59" t="str">
@@ -8537,10 +8554,12 @@
         <f>VLOOKUP(B60,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>54947866</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60">
+        <f>VLOOKUP(A60,map!$B$1:$I$230,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60">
+        <f>VLOOKUP(A60,map!$B$1:$I$230,5,FALSE)</f>
         <v>8</v>
       </c>
       <c r="H60" t="str">
@@ -8573,10 +8592,12 @@
         <f>VLOOKUP(B61,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>57016644</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61">
+        <f>VLOOKUP(A61,map!$B$1:$I$230,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61">
+        <f>VLOOKUP(A61,map!$B$1:$I$230,5,FALSE)</f>
         <v>8</v>
       </c>
       <c r="H61" t="str">
@@ -8609,10 +8630,12 @@
         <f>VLOOKUP(B62,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>32008762</v>
       </c>
-      <c r="F62" s="10">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
+      <c r="F62">
+        <f>VLOOKUP(A62,map!$B$1:$I$230,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <f>VLOOKUP(A62,map!$B$1:$I$230,5,FALSE)</f>
         <v>6</v>
       </c>
       <c r="H62" t="str">
@@ -8645,10 +8668,12 @@
         <f>VLOOKUP(B63,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>45565180</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63">
+        <f>VLOOKUP(A63,map!$B$1:$I$230,4,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63">
+        <f>VLOOKUP(A63,map!$B$1:$I$230,5,FALSE)</f>
         <v>5</v>
       </c>
       <c r="H63" t="str">
@@ -8681,10 +8706,12 @@
         <f>VLOOKUP(B64,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>117087390</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64">
+        <f>VLOOKUP(A64,map!$B$1:$I$230,4,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64">
+        <f>VLOOKUP(A64,map!$B$1:$I$230,5,FALSE)</f>
         <v>4</v>
       </c>
       <c r="H64" t="str">
@@ -10115,7 +10142,8 @@
         <v>53446246</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <f>VLOOKUP(A102,map!$B$1:$I$230,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G102">
         <f>VLOOKUP(A102,map!$B$1:$I$230,5,FALSE)</f>
@@ -10156,7 +10184,8 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <f>VLOOKUP(A103,map!$B$1:$I$230,5,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="H103" t="str">
         <f>VLOOKUP(A103,map!$B$1:$I$230,3,FALSE)</f>
@@ -10452,25 +10481,25 @@
         <f>VLOOKUP(B111,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>268088330</v>
       </c>
-      <c r="F111" t="e">
+      <c r="F111">
         <f>VLOOKUP(A111,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G111" t="e">
+        <v>4</v>
+      </c>
+      <c r="G111">
         <f>VLOOKUP(A111,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H111" t="e">
+        <v>2</v>
+      </c>
+      <c r="H111" t="str">
         <f>VLOOKUP(A111,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" t="e">
+        <v>고양</v>
+      </c>
+      <c r="I111" t="str">
         <f>VLOOKUP(A111,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J111" t="e">
+        <v>경기도</v>
+      </c>
+      <c r="J111" t="str">
         <f>VLOOKUP(A111,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>고양시</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -10489,11 +10518,13 @@
       <c r="E112" s="9">
         <v>165510000</v>
       </c>
-      <c r="F112" s="10">
-        <v>4</v>
-      </c>
-      <c r="G112" s="10">
-        <v>1</v>
+      <c r="F112" t="e">
+        <f>VLOOKUP(A112,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G112" t="e">
+        <f>VLOOKUP(A112,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H112" t="s">
         <v>1842</v>
@@ -10521,11 +10552,13 @@
       <c r="E113" s="9">
         <v>59100000</v>
       </c>
-      <c r="F113" s="10">
-        <v>3</v>
-      </c>
-      <c r="G113" s="10">
-        <v>1</v>
+      <c r="F113" t="e">
+        <f>VLOOKUP(A113,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G113" t="e">
+        <f>VLOOKUP(A113,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H113" t="s">
         <v>1844</v>
@@ -10553,11 +10586,13 @@
       <c r="E114" s="9">
         <v>42770000</v>
       </c>
-      <c r="F114" s="10">
-        <v>2</v>
-      </c>
-      <c r="G114" s="10">
-        <v>1</v>
+      <c r="F114" t="e">
+        <f>VLOOKUP(A114,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G114" t="e">
+        <f>VLOOKUP(A114,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H114" t="s">
         <v>1845</v>
@@ -11077,11 +11112,13 @@
         <f>VLOOKUP(B128,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>673229199</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128">
+        <f>VLOOKUP(A128,map!$B$1:$I$230,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G128" s="10">
-        <v>0</v>
+      <c r="G128">
+        <f>VLOOKUP(A128,map!$B$1:$I$230,5,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="H128" t="str">
         <f>VLOOKUP(A128,map!$B$1:$I$230,3,FALSE)</f>
@@ -11113,10 +11150,12 @@
         <f>VLOOKUP(B129,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>461421891</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129">
+        <f>VLOOKUP(A129,map!$B$1:$I$230,4,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129">
+        <f>VLOOKUP(A129,map!$B$1:$I$230,5,FALSE)</f>
         <v>8</v>
       </c>
       <c r="H129" t="str">
@@ -11149,10 +11188,12 @@
         <f>VLOOKUP(B130,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>553418704</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130">
+        <f>VLOOKUP(A130,map!$B$1:$I$230,4,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130">
+        <f>VLOOKUP(A130,map!$B$1:$I$230,5,FALSE)</f>
         <v>8</v>
       </c>
       <c r="H130" t="str">
@@ -11185,10 +11226,12 @@
         <f>VLOOKUP(B131,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>276612088</v>
       </c>
-      <c r="F131" s="10">
-        <v>1</v>
-      </c>
-      <c r="G131" s="10">
+      <c r="F131">
+        <f>VLOOKUP(A131,map!$B$1:$I$230,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <f>VLOOKUP(A131,map!$B$1:$I$230,5,FALSE)</f>
         <v>3</v>
       </c>
       <c r="H131" t="str">
@@ -11221,10 +11264,12 @@
         <f>VLOOKUP(B132,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>697766499</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132">
+        <f>VLOOKUP(A132,map!$B$1:$I$230,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132">
+        <f>VLOOKUP(A132,map!$B$1:$I$230,5,FALSE)</f>
         <v>7</v>
       </c>
       <c r="H132" t="str">
@@ -24059,10 +24104,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>849</v>
       </c>
       <c r="C1" s="2"/>
@@ -24071,10 +24116,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>849</v>
       </c>
       <c r="C2" s="3"/>
@@ -24083,10 +24128,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>849</v>
       </c>
       <c r="C3" s="3"/>
@@ -27530,8 +27575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28122,7 +28167,9 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="1" t="s">
+        <v>666</v>
+      </c>
       <c r="C21" s="7">
         <v>955384</v>
       </c>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD41EC48-63BC-4648-A709-A938764933AF}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261ECF6D-B22F-41E6-85B8-36A81963039B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6289,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -11117,8 +11117,7 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <f>VLOOKUP(A128,map!$B$1:$I$230,5,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H128" t="str">
         <f>VLOOKUP(A128,map!$B$1:$I$230,3,FALSE)</f>
@@ -27575,7 +27574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261ECF6D-B22F-41E6-85B8-36A81963039B}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35A4C3B-A367-443A-A6B0-0C1A4CCB3814}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5784" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="1848">
   <si>
     <t>행정기관</t>
   </si>
@@ -6289,8 +6289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -10481,25 +10481,25 @@
         <f>VLOOKUP(B111,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>268088330</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="G111">
+        <v>#N/A</v>
+      </c>
+      <c r="G111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,5,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="H111" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,3,FALSE)</f>
-        <v>고양</v>
-      </c>
-      <c r="I111" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경기도</v>
-      </c>
-      <c r="J111" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J111" t="e">
         <f>VLOOKUP(A111,map!$B$1:$I$230,8,FALSE)</f>
-        <v>고양시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -10518,13 +10518,11 @@
       <c r="E112" s="9">
         <v>165510000</v>
       </c>
-      <c r="F112" t="e">
-        <f>VLOOKUP(A112,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" t="e">
-        <f>VLOOKUP(A112,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
       </c>
       <c r="H112" t="s">
         <v>1842</v>
@@ -10552,13 +10550,11 @@
       <c r="E113" s="9">
         <v>59100000</v>
       </c>
-      <c r="F113" t="e">
-        <f>VLOOKUP(A113,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G113" t="e">
-        <f>VLOOKUP(A113,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>1844</v>
@@ -10586,13 +10582,11 @@
       <c r="E114" s="9">
         <v>42770000</v>
       </c>
-      <c r="F114" t="e">
-        <f>VLOOKUP(A114,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" t="e">
-        <f>VLOOKUP(A114,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>1845</v>
@@ -11230,8 +11224,7 @@
         <v>2</v>
       </c>
       <c r="G131">
-        <f>VLOOKUP(A131,map!$B$1:$I$230,5,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H131" t="str">
         <f>VLOOKUP(A131,map!$B$1:$I$230,3,FALSE)</f>
@@ -27574,8 +27567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28166,9 +28159,6 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="C21" s="7">
         <v>955384</v>
       </c>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B35A4C3B-A367-443A-A6B0-0C1A4CCB3814}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A351588-79FF-4C29-93DB-44F86019DCED}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="1847">
   <si>
     <t>행정기관</t>
   </si>
@@ -5812,10 +5812,6 @@
   </si>
   <si>
     <t>덕양구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고양시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6289,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -6327,10 +6323,10 @@
         <v>1841</v>
       </c>
       <c r="I1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="J1" t="s">
         <v>1846</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -10528,7 +10524,7 @@
         <v>1842</v>
       </c>
       <c r="I112" t="s">
-        <v>1843</v>
+        <v>1361</v>
       </c>
       <c r="J112" t="s">
         <v>1842</v>
@@ -10557,13 +10553,13 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="I113" t="s">
+        <v>1361</v>
+      </c>
+      <c r="J113" t="s">
         <v>1843</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1844</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -10589,13 +10585,13 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="I114" t="s">
-        <v>1843</v>
+        <v>1361</v>
       </c>
       <c r="J114" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="115" spans="1:10">

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A351588-79FF-4C29-93DB-44F86019DCED}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F928B02F-258D-40E5-A5A2-18B61509A68F}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6285,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -10180,8 +10180,7 @@
         <v>3</v>
       </c>
       <c r="G103">
-        <f>VLOOKUP(A103,map!$B$1:$I$230,5,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="str">
         <f>VLOOKUP(A103,map!$B$1:$I$230,3,FALSE)</f>
@@ -10547,7 +10546,7 @@
         <v>59100000</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10579,7 +10578,7 @@
         <v>42770000</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G114">
         <v>1</v>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F928B02F-258D-40E5-A5A2-18B61509A68F}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7598B01-D4EB-4F41-93ED-030281B36F92}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="1851">
   <si>
     <t>행정기관</t>
   </si>
@@ -5828,6 +5828,22 @@
   </si>
   <si>
     <t>행정구역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상록구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안산시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단원구</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6285,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J111" sqref="J111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -10025,25 +10041,25 @@
         <f>VLOOKUP(B99,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>58467312</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="e">
         <f>VLOOKUP(A99,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="G99">
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="e">
         <f>VLOOKUP(A99,map!$B$1:$I$230,5,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="H99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H99" t="e">
         <f>VLOOKUP(A99,map!$B$1:$I$230,3,FALSE)</f>
-        <v>안양</v>
-      </c>
-      <c r="I99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I99" t="e">
         <f>VLOOKUP(A99,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경기도</v>
-      </c>
-      <c r="J99" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J99" t="e">
         <f>VLOOKUP(A99,map!$B$1:$I$230,8,FALSE)</f>
-        <v>안양시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -10062,13 +10078,11 @@
       <c r="E100" s="9">
         <v>36600000</v>
       </c>
-      <c r="F100" t="e">
-        <f>VLOOKUP(A100,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G100" t="e">
-        <f>VLOOKUP(A100,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
       </c>
       <c r="H100" t="e">
         <f>VLOOKUP(A100,map!$B$1:$I$230,3,FALSE)</f>
@@ -10099,13 +10113,11 @@
       <c r="E101" s="9">
         <v>21930000</v>
       </c>
-      <c r="F101" t="e">
-        <f>VLOOKUP(A101,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G101" t="e">
-        <f>VLOOKUP(A101,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>3</v>
       </c>
       <c r="H101" t="e">
         <f>VLOOKUP(A101,map!$B$1:$I$230,3,FALSE)</f>
@@ -10142,8 +10154,7 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <f>VLOOKUP(A102,map!$B$1:$I$230,5,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H102" t="str">
         <f>VLOOKUP(A102,map!$B$1:$I$230,3,FALSE)</f>
@@ -10364,25 +10375,25 @@
         <f>VLOOKUP(B108,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>155730955</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="e">
         <f>VLOOKUP(A108,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="G108">
+        <v>#N/A</v>
+      </c>
+      <c r="G108" t="e">
         <f>VLOOKUP(A108,map!$B$1:$I$230,5,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="H108" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H108" t="e">
         <f>VLOOKUP(A108,map!$B$1:$I$230,3,FALSE)</f>
-        <v>안산</v>
-      </c>
-      <c r="I108" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I108" t="e">
         <f>VLOOKUP(A108,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경기도</v>
-      </c>
-      <c r="J108" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J108" t="e">
         <f>VLOOKUP(A108,map!$B$1:$I$230,8,FALSE)</f>
-        <v>안산시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -10401,25 +10412,20 @@
       <c r="E109" s="9">
         <v>57830000</v>
       </c>
-      <c r="F109" t="e">
-        <f>VLOOKUP(A109,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" t="e">
-        <f>VLOOKUP(A109,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" t="e">
-        <f>VLOOKUP(A109,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="e">
-        <f>VLOOKUP(A109,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J109" t="e">
-        <f>VLOOKUP(A109,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1848</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -10438,25 +10444,20 @@
       <c r="E110" s="9">
         <v>91230000</v>
       </c>
-      <c r="F110" t="e">
-        <f>VLOOKUP(A110,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G110" t="e">
-        <f>VLOOKUP(A110,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H110" t="e">
-        <f>VLOOKUP(A110,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" t="e">
-        <f>VLOOKUP(A110,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J110" t="e">
-        <f>VLOOKUP(A110,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1850</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1849</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -10523,7 +10524,7 @@
         <v>1842</v>
       </c>
       <c r="I112" t="s">
-        <v>1361</v>
+        <v>1847</v>
       </c>
       <c r="J112" t="s">
         <v>1842</v>
@@ -10555,7 +10556,7 @@
         <v>1843</v>
       </c>
       <c r="I113" t="s">
-        <v>1361</v>
+        <v>1847</v>
       </c>
       <c r="J113" t="s">
         <v>1843</v>
@@ -10587,7 +10588,7 @@
         <v>1844</v>
       </c>
       <c r="I114" t="s">
-        <v>1361</v>
+        <v>1847</v>
       </c>
       <c r="J114" t="s">
         <v>1844</v>
@@ -10801,12 +10802,10 @@
         <v>138660046</v>
       </c>
       <c r="F120">
-        <f>VLOOKUP(A120,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <f>VLOOKUP(A120,map!$B$1:$I$230,5,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H120" t="str">
         <f>VLOOKUP(A120,map!$B$1:$I$230,3,FALSE)</f>
@@ -27560,10 +27559,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
-  <dimension ref="A1:I230"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -28495,7 +28494,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="7">
         <v>31</v>
       </c>
@@ -28524,13 +28523,10 @@
         <v>927</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>1790</v>
-      </c>
       <c r="C34" s="7">
         <v>668089</v>
       </c>
@@ -28552,8 +28548,11 @@
       <c r="I34" s="7" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" s="8" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="7">
         <v>33</v>
       </c>
@@ -28582,13 +28581,10 @@
         <v>937</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>1791</v>
-      </c>
       <c r="C36" s="7">
         <v>566558</v>
       </c>
@@ -28610,8 +28606,11 @@
       <c r="I36" s="7" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="8" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="7">
         <v>35</v>
       </c>
@@ -28640,7 +28639,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -28669,7 +28668,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -28698,7 +28697,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -28727,7 +28726,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="7">
         <v>39</v>
       </c>
@@ -28756,7 +28755,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="7">
         <v>40</v>
       </c>
@@ -28785,7 +28784,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="7">
         <v>41</v>
       </c>
@@ -28814,7 +28813,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="7">
         <v>42</v>
       </c>
@@ -28843,7 +28842,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="7">
         <v>43</v>
       </c>
@@ -28872,7 +28871,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="7">
         <v>44</v>
       </c>
@@ -28901,7 +28900,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="7">
         <v>45</v>
       </c>
@@ -28930,7 +28929,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="7">
         <v>46</v>
       </c>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7598B01-D4EB-4F41-93ED-030281B36F92}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C6B075-05FC-4B46-9A91-D79B4A84034D}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4896" yWindow="1056" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6301,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J111" sqref="J111"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -8377,12 +8377,10 @@
         <v>140286900</v>
       </c>
       <c r="F55">
-        <f>VLOOKUP(A55,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <f>VLOOKUP(A55,map!$B$1:$I$230,5,FALSE)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H55" t="str">
         <f>VLOOKUP(A55,map!$B$1:$I$230,3,FALSE)</f>
@@ -8491,12 +8489,10 @@
         <v>7194831</v>
       </c>
       <c r="F58">
-        <f>VLOOKUP(A58,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <f>VLOOKUP(A58,map!$B$1:$I$230,5,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" t="str">
         <f>VLOOKUP(A58,map!$B$1:$I$230,3,FALSE)</f>
@@ -8681,12 +8677,10 @@
         <v>45565180</v>
       </c>
       <c r="F63">
-        <f>VLOOKUP(A63,map!$B$1:$I$230,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>2</v>
-      </c>
-      <c r="G63">
-        <f>VLOOKUP(A63,map!$B$1:$I$230,5,FALSE)</f>
-        <v>5</v>
       </c>
       <c r="H63" t="str">
         <f>VLOOKUP(A63,map!$B$1:$I$230,3,FALSE)</f>
@@ -8719,12 +8713,10 @@
         <v>117087390</v>
       </c>
       <c r="F64">
-        <f>VLOOKUP(A64,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <f>VLOOKUP(A64,map!$B$1:$I$230,5,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="str">
         <f>VLOOKUP(A64,map!$B$1:$I$230,3,FALSE)</f>
@@ -8795,12 +8787,10 @@
         <v>411411035</v>
       </c>
       <c r="F66">
-        <f>VLOOKUP(A66,map!$B$1:$I$230,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>1</v>
-      </c>
-      <c r="G66">
-        <f>VLOOKUP(A66,map!$B$1:$I$230,5,FALSE)</f>
-        <v>3</v>
       </c>
       <c r="H66" t="str">
         <f>VLOOKUP(A66,map!$B$1:$I$230,3,FALSE)</f>
@@ -10413,10 +10403,10 @@
         <v>57830000</v>
       </c>
       <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
         <v>3</v>
-      </c>
-      <c r="G109">
-        <v>4</v>
       </c>
       <c r="H109" t="s">
         <v>1848</v>
@@ -10448,7 +10438,7 @@
         <v>3</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H110" t="s">
         <v>1850</v>
@@ -10805,7 +10795,7 @@
         <v>2</v>
       </c>
       <c r="G120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H120" t="str">
         <f>VLOOKUP(A120,map!$B$1:$I$230,3,FALSE)</f>
@@ -10838,12 +10828,10 @@
         <v>36416854</v>
       </c>
       <c r="F121">
-        <f>VLOOKUP(A121,map!$B$1:$I$230,4,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="G121">
         <v>5</v>
-      </c>
-      <c r="G121">
-        <f>VLOOKUP(A121,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
       </c>
       <c r="H121" t="str">
         <f>VLOOKUP(A121,map!$B$1:$I$230,3,FALSE)</f>
@@ -10914,12 +10902,10 @@
         <v>92991186</v>
       </c>
       <c r="F123">
-        <f>VLOOKUP(A123,map!$B$1:$I$230,4,FALSE)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G123">
-        <f>VLOOKUP(A123,map!$B$1:$I$230,5,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H123" t="str">
         <f>VLOOKUP(A123,map!$B$1:$I$230,3,FALSE)</f>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9C6B075-05FC-4B46-9A91-D79B4A84034D}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BE4F50-B90D-4292-AB59-13BEA3970CB1}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="1056" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4968" yWindow="732" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6301,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -8822,25 +8822,25 @@
         <f>VLOOKUP(B67,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>172904214</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="e">
         <f>VLOOKUP(A67,map!$B$1:$I$230,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G67">
+        <v>#N/A</v>
+      </c>
+      <c r="G67" t="e">
         <f>VLOOKUP(A67,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="H67" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H67" t="e">
         <f>VLOOKUP(A67,map!$B$1:$I$230,3,FALSE)</f>
-        <v>인천 옹진군</v>
-      </c>
-      <c r="I67" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I67" t="e">
         <f>VLOOKUP(A67,map!$B$1:$I$230,7,FALSE)</f>
-        <v>인천광역시</v>
-      </c>
-      <c r="J67" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J67" t="e">
         <f>VLOOKUP(A67,map!$B$1:$I$230,8,FALSE)</f>
-        <v>옹진군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -10031,13 +10031,11 @@
         <f>VLOOKUP(B99,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>58467312</v>
       </c>
-      <c r="F99" t="e">
-        <f>VLOOKUP(A99,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G99" t="e">
-        <f>VLOOKUP(A99,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>5</v>
       </c>
       <c r="H99" t="e">
         <f>VLOOKUP(A99,map!$B$1:$I$230,3,FALSE)</f>
@@ -10068,11 +10066,13 @@
       <c r="E100" s="9">
         <v>36600000</v>
       </c>
-      <c r="F100">
-        <v>2</v>
-      </c>
-      <c r="G100">
-        <v>3</v>
+      <c r="F100" t="e">
+        <f>VLOOKUP(A100,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G100" t="e">
+        <f>VLOOKUP(A100,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H100" t="e">
         <f>VLOOKUP(A100,map!$B$1:$I$230,3,FALSE)</f>
@@ -10103,11 +10103,13 @@
       <c r="E101" s="9">
         <v>21930000</v>
       </c>
-      <c r="F101">
-        <v>3</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
+      <c r="F101" t="e">
+        <f>VLOOKUP(A101,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G101" t="e">
+        <f>VLOOKUP(A101,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H101" t="e">
         <f>VLOOKUP(A101,map!$B$1:$I$230,3,FALSE)</f>
@@ -10792,7 +10794,7 @@
         <v>138660046</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -14838,25 +14840,25 @@
         <f>VLOOKUP(B227,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>500909508</v>
       </c>
-      <c r="F227" t="e">
+      <c r="F227">
         <f>VLOOKUP(A227,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G227" t="e">
+        <v>1</v>
+      </c>
+      <c r="G227">
         <f>VLOOKUP(A227,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H227" t="e">
+        <v>22</v>
+      </c>
+      <c r="H227" t="str">
         <f>VLOOKUP(A227,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I227" t="e">
+        <v>강진</v>
+      </c>
+      <c r="I227" t="str">
         <f>VLOOKUP(A227,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J227" t="e">
+        <v>전라남도</v>
+      </c>
+      <c r="J227" t="str">
         <f>VLOOKUP(A227,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+        <v>강진군</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -17333,8 +17335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7B6AF8-59D7-493A-9124-A868A77EBB30}">
   <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -24066,7 +24068,7 @@
   <dimension ref="A1:D250"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -27547,8 +27549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -32192,7 +32194,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" s="7">
         <v>159</v>
       </c>
@@ -32221,7 +32223,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" s="7">
         <v>160</v>
       </c>
@@ -32250,7 +32252,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" s="7">
         <v>161</v>
       </c>
@@ -32279,7 +32281,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" s="7">
         <v>162</v>
       </c>
@@ -32308,13 +32310,10 @@
         <v>901</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" s="7">
         <v>163</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>1707</v>
-      </c>
       <c r="C165" s="7">
         <v>17735</v>
       </c>
@@ -32336,8 +32335,11 @@
       <c r="I165" s="7" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" s="8" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="7">
         <v>164</v>
       </c>
@@ -32366,12 +32368,12 @@
         <v>856</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" s="7">
         <v>165</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>1707</v>
+      <c r="B167" t="s">
+        <v>782</v>
       </c>
       <c r="C167" s="7">
         <v>33413</v>
@@ -32395,7 +32397,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" s="7">
         <v>166</v>
       </c>
@@ -32424,7 +32426,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" s="7">
         <v>167</v>
       </c>
@@ -32453,7 +32455,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" s="7">
         <v>168</v>
       </c>
@@ -32482,7 +32484,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171" s="7">
         <v>169</v>
       </c>
@@ -32511,7 +32513,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" s="7">
         <v>170</v>
       </c>
@@ -32540,7 +32542,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" s="7">
         <v>171</v>
       </c>
@@ -32569,7 +32571,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" s="7">
         <v>172</v>
       </c>
@@ -32598,7 +32600,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" s="7">
         <v>173</v>
       </c>
@@ -32627,7 +32629,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:10">
       <c r="A176" s="7">
         <v>174</v>
       </c>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7BE4F50-B90D-4292-AB59-13BEA3970CB1}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4DE580-5002-4AFA-9D54-8E17DA299D85}"/>
   <bookViews>
-    <workbookView xWindow="4968" yWindow="732" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5496" yWindow="576" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6301,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -8525,12 +8525,10 @@
         <v>24835030</v>
       </c>
       <c r="F59">
-        <f>VLOOKUP(A59,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <f>VLOOKUP(A59,map!$B$1:$I$230,5,FALSE)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H59" t="str">
         <f>VLOOKUP(A59,map!$B$1:$I$230,3,FALSE)</f>
@@ -8563,12 +8561,10 @@
         <v>54947866</v>
       </c>
       <c r="F60">
-        <f>VLOOKUP(A60,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <f>VLOOKUP(A60,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H60" t="str">
         <f>VLOOKUP(A60,map!$B$1:$I$230,3,FALSE)</f>
@@ -8601,12 +8597,10 @@
         <v>57016644</v>
       </c>
       <c r="F61">
-        <f>VLOOKUP(A61,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <f>VLOOKUP(A61,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H61" t="str">
         <f>VLOOKUP(A61,map!$B$1:$I$230,3,FALSE)</f>
@@ -8639,12 +8633,10 @@
         <v>32008762</v>
       </c>
       <c r="F62">
-        <f>VLOOKUP(A62,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <f>VLOOKUP(A62,map!$B$1:$I$230,5,FALSE)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H62" t="str">
         <f>VLOOKUP(A62,map!$B$1:$I$230,3,FALSE)</f>
@@ -10904,10 +10896,10 @@
         <v>92991186</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H123" t="str">
         <f>VLOOKUP(A123,map!$B$1:$I$230,3,FALSE)</f>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA4DE580-5002-4AFA-9D54-8E17DA299D85}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45F258E-74AB-4391-A162-616F6D26106F}"/>
   <bookViews>
-    <workbookView xWindow="5496" yWindow="576" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="804" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6301,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H55" t="str">
         <f>VLOOKUP(A55,map!$B$1:$I$230,3,FALSE)</f>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H58" t="str">
         <f>VLOOKUP(A58,map!$B$1:$I$230,3,FALSE)</f>
@@ -8528,7 +8528,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" t="str">
         <f>VLOOKUP(A59,map!$B$1:$I$230,3,FALSE)</f>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H60" t="str">
         <f>VLOOKUP(A60,map!$B$1:$I$230,3,FALSE)</f>
@@ -8600,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H61" t="str">
         <f>VLOOKUP(A61,map!$B$1:$I$230,3,FALSE)</f>
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" t="str">
         <f>VLOOKUP(A62,map!$B$1:$I$230,3,FALSE)</f>
@@ -9986,12 +9986,10 @@
         <v>81544832</v>
       </c>
       <c r="F98">
-        <f>VLOOKUP(A98,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <f>VLOOKUP(A98,map!$B$1:$I$230,5,FALSE)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="str">
         <f>VLOOKUP(A98,map!$B$1:$I$230,3,FALSE)</f>
@@ -10058,13 +10056,11 @@
       <c r="E100" s="9">
         <v>36600000</v>
       </c>
-      <c r="F100" t="e">
-        <f>VLOOKUP(A100,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G100" t="e">
-        <f>VLOOKUP(A100,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
       </c>
       <c r="H100" t="e">
         <f>VLOOKUP(A100,map!$B$1:$I$230,3,FALSE)</f>
@@ -10095,13 +10091,11 @@
       <c r="E101" s="9">
         <v>21930000</v>
       </c>
-      <c r="F101" t="e">
-        <f>VLOOKUP(A101,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G101" t="e">
-        <f>VLOOKUP(A101,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
       </c>
       <c r="H101" t="e">
         <f>VLOOKUP(A101,map!$B$1:$I$230,3,FALSE)</f>
@@ -10322,12 +10316,10 @@
         <v>95664308</v>
       </c>
       <c r="F107">
-        <f>VLOOKUP(A107,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G107">
-        <f>VLOOKUP(A107,map!$B$1:$I$230,5,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H107" t="str">
         <f>VLOOKUP(A107,map!$B$1:$I$230,3,FALSE)</f>
@@ -10397,7 +10389,7 @@
         <v>57830000</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -10432,7 +10424,7 @@
         <v>3</v>
       </c>
       <c r="G110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H110" t="s">
         <v>1850</v>
@@ -10786,7 +10778,7 @@
         <v>138660046</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -10858,12 +10850,10 @@
         <v>53987611</v>
       </c>
       <c r="F122">
-        <f>VLOOKUP(A122,map!$B$1:$I$230,4,FALSE)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <f>VLOOKUP(A122,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H122" t="str">
         <f>VLOOKUP(A122,map!$B$1:$I$230,3,FALSE)</f>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45F258E-74AB-4391-A162-616F6D26106F}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5CA8818-B073-44C8-A6A6-24C3AA725F39}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="804" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="144" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="1851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4027" uniqueCount="1857">
   <si>
     <t>행정기관</t>
   </si>
@@ -5844,6 +5844,30 @@
   </si>
   <si>
     <t>단원구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만안구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동안구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안양시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동남구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서북구</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6301,8 +6325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -10062,17 +10086,14 @@
       <c r="G100">
         <v>7</v>
       </c>
-      <c r="H100" t="e">
-        <f>VLOOKUP(A100,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I100" t="e">
-        <f>VLOOKUP(A100,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J100" t="e">
-        <f>VLOOKUP(A100,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="H100" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1851</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -10097,17 +10118,14 @@
       <c r="G101">
         <v>7</v>
       </c>
-      <c r="H101" t="e">
-        <f>VLOOKUP(A101,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" t="e">
-        <f>VLOOKUP(A101,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J101" t="e">
-        <f>VLOOKUP(A101,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="H101" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1853</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1852</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -10202,12 +10220,10 @@
         <v>458244178</v>
       </c>
       <c r="F104">
-        <f>VLOOKUP(A104,map!$B$1:$I$230,4,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <f>VLOOKUP(A104,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H104" t="str">
         <f>VLOOKUP(A104,map!$B$1:$I$230,3,FALSE)</f>
@@ -11146,12 +11162,10 @@
         <v>553418704</v>
       </c>
       <c r="F130">
-        <f>VLOOKUP(A130,map!$B$1:$I$230,4,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <f>VLOOKUP(A130,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H130" t="str">
         <f>VLOOKUP(A130,map!$B$1:$I$230,3,FALSE)</f>
@@ -11221,12 +11235,10 @@
         <v>697766499</v>
       </c>
       <c r="F132">
-        <f>VLOOKUP(A132,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G132">
-        <f>VLOOKUP(A132,map!$B$1:$I$230,5,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H132" t="str">
         <f>VLOOKUP(A132,map!$B$1:$I$230,3,FALSE)</f>
@@ -11677,8 +11689,7 @@
         <v>868240238</v>
       </c>
       <c r="F144">
-        <f>VLOOKUP(A144,map!$B$1:$I$230,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G144">
         <f>VLOOKUP(A144,map!$B$1:$I$230,5,FALSE)</f>
@@ -11715,8 +11726,7 @@
         <v>1040783864</v>
       </c>
       <c r="F145">
-        <f>VLOOKUP(A145,map!$B$1:$I$230,4,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G145">
         <f>VLOOKUP(A145,map!$B$1:$I$230,5,FALSE)</f>
@@ -11753,8 +11763,7 @@
         <v>180201980</v>
       </c>
       <c r="F146">
-        <f>VLOOKUP(A146,map!$B$1:$I$230,4,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G146">
         <f>VLOOKUP(A146,map!$B$1:$I$230,5,FALSE)</f>
@@ -11791,8 +11800,7 @@
         <v>303521188</v>
       </c>
       <c r="F147">
-        <f>VLOOKUP(A147,map!$B$1:$I$230,4,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G147">
         <f>VLOOKUP(A147,map!$B$1:$I$230,5,FALSE)</f>
@@ -11867,8 +11875,7 @@
         <v>1187839038</v>
       </c>
       <c r="F149">
-        <f>VLOOKUP(A149,map!$B$1:$I$230,4,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G149">
         <f>VLOOKUP(A149,map!$B$1:$I$230,5,FALSE)</f>
@@ -11905,8 +11912,7 @@
         <v>1820310462</v>
       </c>
       <c r="F150">
-        <f>VLOOKUP(A150,map!$B$1:$I$230,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G150">
         <f>VLOOKUP(A150,map!$B$1:$I$230,5,FALSE)</f>
@@ -11943,8 +11949,7 @@
         <v>998066556</v>
       </c>
       <c r="F151">
-        <f>VLOOKUP(A151,map!$B$1:$I$230,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G151">
         <f>VLOOKUP(A151,map!$B$1:$I$230,5,FALSE)</f>
@@ -11981,8 +11986,7 @@
         <v>1127289702</v>
       </c>
       <c r="F152">
-        <f>VLOOKUP(A152,map!$B$1:$I$230,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G152">
         <f>VLOOKUP(A152,map!$B$1:$I$230,5,FALSE)</f>
@@ -12019,8 +12023,7 @@
         <v>1463928054</v>
       </c>
       <c r="F153">
-        <f>VLOOKUP(A153,map!$B$1:$I$230,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G153">
         <f>VLOOKUP(A153,map!$B$1:$I$230,5,FALSE)</f>
@@ -12057,8 +12060,7 @@
         <v>1219777976</v>
       </c>
       <c r="F154">
-        <f>VLOOKUP(A154,map!$B$1:$I$230,4,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G154">
         <f>VLOOKUP(A154,map!$B$1:$I$230,5,FALSE)</f>
@@ -12964,25 +12966,25 @@
         <f>VLOOKUP(B178,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>636082715</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="e">
         <f>VLOOKUP(A178,map!$B$1:$I$230,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="G178">
+        <v>#N/A</v>
+      </c>
+      <c r="G178" t="e">
         <f>VLOOKUP(A178,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="H178" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H178" t="e">
         <f>VLOOKUP(A178,map!$B$1:$I$230,3,FALSE)</f>
-        <v>천안</v>
-      </c>
-      <c r="I178" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I178" t="e">
         <f>VLOOKUP(A178,map!$B$1:$I$230,7,FALSE)</f>
-        <v>충청남도</v>
-      </c>
-      <c r="J178" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J178" t="e">
         <f>VLOOKUP(A178,map!$B$1:$I$230,8,FALSE)</f>
-        <v>천안시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -13001,25 +13003,20 @@
       <c r="E179" s="9">
         <v>438540000</v>
       </c>
-      <c r="F179" t="e">
-        <f>VLOOKUP(A179,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G179" t="e">
-        <f>VLOOKUP(A179,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H179" t="e">
-        <f>VLOOKUP(A179,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I179" t="e">
-        <f>VLOOKUP(A179,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J179" t="e">
-        <f>VLOOKUP(A179,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179">
+        <v>9</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -13038,25 +13035,20 @@
       <c r="E180" s="9">
         <v>197680000</v>
       </c>
-      <c r="F180" t="e">
-        <f>VLOOKUP(A180,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G180" t="e">
-        <f>VLOOKUP(A180,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H180" t="e">
-        <f>VLOOKUP(A180,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I180" t="e">
-        <f>VLOOKUP(A180,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J180" t="e">
-        <f>VLOOKUP(A180,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>9</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1856</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1855</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -13115,8 +13107,7 @@
         <v>586558277</v>
       </c>
       <c r="F182">
-        <f>VLOOKUP(A182,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182">
         <f>VLOOKUP(A182,map!$B$1:$I$230,5,FALSE)</f>
@@ -13153,8 +13144,7 @@
         <v>542795756</v>
       </c>
       <c r="F183">
-        <f>VLOOKUP(A183,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183">
         <f>VLOOKUP(A183,map!$B$1:$I$230,5,FALSE)</f>
@@ -13305,8 +13295,7 @@
         <v>705424109</v>
       </c>
       <c r="F187">
-        <f>VLOOKUP(A187,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187">
         <f>VLOOKUP(A187,map!$B$1:$I$230,5,FALSE)</f>
@@ -13457,8 +13446,7 @@
         <v>479099966</v>
       </c>
       <c r="F191">
-        <f>VLOOKUP(A191,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G191">
         <f>VLOOKUP(A191,map!$B$1:$I$230,5,FALSE)</f>
@@ -13571,8 +13559,7 @@
         <v>515886990</v>
       </c>
       <c r="F194">
-        <f>VLOOKUP(A194,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194">
         <f>VLOOKUP(A194,map!$B$1:$I$230,5,FALSE)</f>
@@ -15505,8 +15492,7 @@
         <v>670089068</v>
       </c>
       <c r="F245">
-        <f>VLOOKUP(A245,map!$B$1:$I$230,4,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G245">
         <f>VLOOKUP(A245,map!$B$1:$I$230,5,FALSE)</f>
@@ -15581,8 +15567,7 @@
         <v>1254640829</v>
       </c>
       <c r="F247">
-        <f>VLOOKUP(A247,map!$B$1:$I$230,4,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G247">
         <f>VLOOKUP(A247,map!$B$1:$I$230,5,FALSE)</f>
@@ -15619,8 +15604,7 @@
         <v>911902545</v>
       </c>
       <c r="F248">
-        <f>VLOOKUP(A248,map!$B$1:$I$230,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G248">
         <f>VLOOKUP(A248,map!$B$1:$I$230,5,FALSE)</f>
@@ -16037,8 +16021,7 @@
         <v>661483887</v>
       </c>
       <c r="F259">
-        <f>VLOOKUP(A259,map!$B$1:$I$230,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G259">
         <f>VLOOKUP(A259,map!$B$1:$I$230,5,FALSE)</f>
@@ -16075,8 +16058,7 @@
         <v>1202034344</v>
       </c>
       <c r="F260">
-        <f>VLOOKUP(A260,map!$B$1:$I$230,4,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G260">
         <f>VLOOKUP(A260,map!$B$1:$I$230,5,FALSE)</f>
@@ -16113,8 +16095,7 @@
         <v>990043224</v>
       </c>
       <c r="F261">
-        <f>VLOOKUP(A261,map!$B$1:$I$230,4,FALSE)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G261">
         <f>VLOOKUP(A261,map!$B$1:$I$230,5,FALSE)</f>
@@ -16151,8 +16132,7 @@
         <v>72942203</v>
       </c>
       <c r="F262">
-        <f>VLOOKUP(A262,map!$B$1:$I$230,4,FALSE)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G262">
         <f>VLOOKUP(A262,map!$B$1:$I$230,5,FALSE)</f>
@@ -27531,8 +27511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -33568,7 +33548,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:10">
       <c r="A209" s="7">
         <v>207</v>
       </c>
@@ -33597,7 +33577,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:10">
       <c r="A210" s="7">
         <v>208</v>
       </c>
@@ -33626,7 +33606,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:10">
       <c r="A211" s="7">
         <v>209</v>
       </c>
@@ -33655,7 +33635,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:10">
       <c r="A212" s="7">
         <v>210</v>
       </c>
@@ -33684,7 +33664,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:10">
       <c r="A213" s="7">
         <v>211</v>
       </c>
@@ -33713,7 +33693,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:10">
       <c r="A214" s="7">
         <v>212</v>
       </c>
@@ -33742,7 +33722,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:10">
       <c r="A215" s="7">
         <v>213</v>
       </c>
@@ -33771,13 +33751,10 @@
         <v>992</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:10">
       <c r="A216" s="7">
         <v>214</v>
       </c>
-      <c r="B216" s="8" t="s">
-        <v>1658</v>
-      </c>
       <c r="C216" s="7">
         <v>584912</v>
       </c>
@@ -33799,8 +33776,11 @@
       <c r="I216" s="7" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="J216" s="8" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="7">
         <v>215</v>
       </c>
@@ -33829,7 +33809,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:10">
       <c r="A218" s="7">
         <v>216</v>
       </c>
@@ -33858,7 +33838,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:10">
       <c r="A219" s="7">
         <v>217</v>
       </c>
@@ -33887,7 +33867,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:10">
       <c r="A220" s="7">
         <v>218</v>
       </c>
@@ -33916,7 +33896,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:10">
       <c r="A221" s="7">
         <v>219</v>
       </c>
@@ -33945,7 +33925,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:10">
       <c r="A222" s="7">
         <v>220</v>
       </c>
@@ -33974,7 +33954,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:10">
       <c r="A223" s="7">
         <v>221</v>
       </c>
@@ -34003,7 +33983,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:10">
       <c r="A224" s="7">
         <v>222</v>
       </c>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5CA8818-B073-44C8-A6A6-24C3AA725F39}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{433C8A63-E5D0-4AAF-9EB1-0AAFEE7B18FF}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="144" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="1200" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6325,8 +6325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B175" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView tabSelected="1" topLeftCell="B179" workbookViewId="0">
+      <selection activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -13007,7 +13007,7 @@
         <v>4</v>
       </c>
       <c r="G179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H179" t="s">
         <v>1854</v>
@@ -13039,7 +13039,7 @@
         <v>3</v>
       </c>
       <c r="G180">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H180" t="s">
         <v>1856</v>
@@ -13069,12 +13069,10 @@
         <v>864152740</v>
       </c>
       <c r="F181">
-        <f>VLOOKUP(A181,map!$B$1:$I$230,4,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G181">
-        <f>VLOOKUP(A181,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H181" t="str">
         <f>VLOOKUP(A181,map!$B$1:$I$230,3,FALSE)</f>
@@ -13107,11 +13105,10 @@
         <v>586558277</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <f>VLOOKUP(A182,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H182" t="str">
         <f>VLOOKUP(A182,map!$B$1:$I$230,3,FALSE)</f>
@@ -13147,8 +13144,7 @@
         <v>2</v>
       </c>
       <c r="G183">
-        <f>VLOOKUP(A183,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H183" t="str">
         <f>VLOOKUP(A183,map!$B$1:$I$230,3,FALSE)</f>
@@ -13181,12 +13177,10 @@
         <v>742026668</v>
       </c>
       <c r="F184">
-        <f>VLOOKUP(A184,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <f>VLOOKUP(A184,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H184" t="str">
         <f>VLOOKUP(A184,map!$B$1:$I$230,3,FALSE)</f>
@@ -13298,8 +13292,7 @@
         <v>1</v>
       </c>
       <c r="G187">
-        <f>VLOOKUP(A187,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H187" t="str">
         <f>VLOOKUP(A187,map!$B$1:$I$230,3,FALSE)</f>
@@ -13446,11 +13439,10 @@
         <v>479099966</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <f>VLOOKUP(A191,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H191" t="str">
         <f>VLOOKUP(A191,map!$B$1:$I$230,3,FALSE)</f>
@@ -13483,12 +13475,10 @@
         <v>446698483</v>
       </c>
       <c r="F192">
-        <f>VLOOKUP(A192,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192">
-        <f>VLOOKUP(A192,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H192" t="str">
         <f>VLOOKUP(A192,map!$B$1:$I$230,3,FALSE)</f>
@@ -13521,12 +13511,10 @@
         <v>542648184</v>
       </c>
       <c r="F193">
-        <f>VLOOKUP(A193,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G193">
-        <f>VLOOKUP(A193,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H193" t="str">
         <f>VLOOKUP(A193,map!$B$1:$I$230,3,FALSE)</f>
@@ -13562,8 +13550,7 @@
         <v>0</v>
       </c>
       <c r="G194">
-        <f>VLOOKUP(A194,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H194" t="str">
         <f>VLOOKUP(A194,map!$B$1:$I$230,3,FALSE)</f>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{433C8A63-E5D0-4AAF-9EB1-0AAFEE7B18FF}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E73E4CD-23A2-4411-80E2-43A9214C2A71}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="1200" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="1092" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="map" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="map" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4027" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="1857">
   <si>
     <t>행정기관</t>
   </si>
@@ -6325,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B179" workbookViewId="0">
-      <selection activeCell="G182" sqref="G182"/>
+    <sheetView tabSelected="1" topLeftCell="B174" workbookViewId="0">
+      <selection activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -13003,11 +13004,13 @@
       <c r="E179" s="9">
         <v>438540000</v>
       </c>
-      <c r="F179">
-        <v>4</v>
-      </c>
-      <c r="G179">
-        <v>10</v>
+      <c r="F179" t="e">
+        <f>VLOOKUP(A179,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G179" t="e">
+        <f>VLOOKUP(A179,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H179" t="s">
         <v>1854</v>
@@ -13035,11 +13038,13 @@
       <c r="E180" s="9">
         <v>197680000</v>
       </c>
-      <c r="F180">
-        <v>3</v>
-      </c>
-      <c r="G180">
-        <v>10</v>
+      <c r="F180" t="e">
+        <f>VLOOKUP(A180,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G180" t="e">
+        <f>VLOOKUP(A180,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H180" t="s">
         <v>1856</v>
@@ -13069,10 +13074,12 @@
         <v>864152740</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <f>VLOOKUP(A181,map!$B$1:$I$230,4,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="G181">
-        <v>11</v>
+        <f>VLOOKUP(A181,map!$B$1:$I$230,5,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="H181" t="str">
         <f>VLOOKUP(A181,map!$B$1:$I$230,3,FALSE)</f>
@@ -13105,10 +13112,12 @@
         <v>586558277</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <f>VLOOKUP(A182,map!$B$1:$I$230,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G182">
-        <v>12</v>
+        <f>VLOOKUP(A182,map!$B$1:$I$230,5,FALSE)</f>
+        <v>11</v>
       </c>
       <c r="H182" t="str">
         <f>VLOOKUP(A182,map!$B$1:$I$230,3,FALSE)</f>
@@ -13141,10 +13150,12 @@
         <v>542795756</v>
       </c>
       <c r="F183">
-        <v>2</v>
+        <f>VLOOKUP(A183,map!$B$1:$I$230,4,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="G183">
-        <v>10</v>
+        <f>VLOOKUP(A183,map!$B$1:$I$230,5,FALSE)</f>
+        <v>9</v>
       </c>
       <c r="H183" t="str">
         <f>VLOOKUP(A183,map!$B$1:$I$230,3,FALSE)</f>
@@ -13177,10 +13188,12 @@
         <v>742026668</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <f>VLOOKUP(A184,map!$B$1:$I$230,4,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>12</v>
+        <f>VLOOKUP(A184,map!$B$1:$I$230,5,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="H184" t="str">
         <f>VLOOKUP(A184,map!$B$1:$I$230,3,FALSE)</f>
@@ -13289,10 +13302,12 @@
         <v>705424109</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <f>VLOOKUP(A187,map!$B$1:$I$230,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G187">
-        <v>10</v>
+        <f>VLOOKUP(A187,map!$B$1:$I$230,5,FALSE)</f>
+        <v>9</v>
       </c>
       <c r="H187" t="str">
         <f>VLOOKUP(A187,map!$B$1:$I$230,3,FALSE)</f>
@@ -13439,10 +13454,12 @@
         <v>479099966</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <f>VLOOKUP(A191,map!$B$1:$I$230,4,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="G191">
-        <v>12</v>
+        <f>VLOOKUP(A191,map!$B$1:$I$230,5,FALSE)</f>
+        <v>11</v>
       </c>
       <c r="H191" t="str">
         <f>VLOOKUP(A191,map!$B$1:$I$230,3,FALSE)</f>
@@ -13475,10 +13492,12 @@
         <v>446698483</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <f>VLOOKUP(A192,map!$B$1:$I$230,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G192">
-        <v>11</v>
+        <f>VLOOKUP(A192,map!$B$1:$I$230,5,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="H192" t="str">
         <f>VLOOKUP(A192,map!$B$1:$I$230,3,FALSE)</f>
@@ -13511,10 +13530,12 @@
         <v>542648184</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <f>VLOOKUP(A193,map!$B$1:$I$230,4,FALSE)</f>
+        <v>3</v>
       </c>
       <c r="G193">
-        <v>11</v>
+        <f>VLOOKUP(A193,map!$B$1:$I$230,5,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="H193" t="str">
         <f>VLOOKUP(A193,map!$B$1:$I$230,3,FALSE)</f>
@@ -13547,10 +13568,12 @@
         <v>515886990</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <f>VLOOKUP(A194,map!$B$1:$I$230,4,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>10</v>
+        <f>VLOOKUP(A194,map!$B$1:$I$230,5,FALSE)</f>
+        <v>9</v>
       </c>
       <c r="H194" t="str">
         <f>VLOOKUP(A194,map!$B$1:$I$230,3,FALSE)</f>
@@ -17281,6 +17304,2359 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9E683F-7136-4E9A-B102-56B23137AA83}">
+  <dimension ref="A1:B292"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B74" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B80" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>12</v>
+      </c>
+      <c r="B83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>12</v>
+      </c>
+      <c r="B84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B86" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B88" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B90" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B92" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B93" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>7</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B95" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B96" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B97" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="B101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B105" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B106" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B108" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>3</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B111" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>9</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>8</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B118" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>3</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>9</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B125" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B126" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B127" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B133" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B134" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>8</v>
+      </c>
+      <c r="B135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>8</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>9</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>9</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>9</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B142" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>10</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>12</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>12</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>12</v>
+      </c>
+      <c r="B147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>9</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>12</v>
+      </c>
+      <c r="B149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>11</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>11</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>12</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>9</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>9</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>10</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B161" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B163" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B164" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B165" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B166" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>5</v>
+      </c>
+      <c r="B175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B177" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B178" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>3</v>
+      </c>
+      <c r="B181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>3</v>
+      </c>
+      <c r="B185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B195" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>3</v>
+      </c>
+      <c r="B196">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B197" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B198" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B199" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>3</v>
+      </c>
+      <c r="B201">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B202" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>5</v>
+      </c>
+      <c r="B208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>5</v>
+      </c>
+      <c r="B209">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B214" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>5</v>
+      </c>
+      <c r="B219">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>3</v>
+      </c>
+      <c r="B223">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>1</v>
+      </c>
+      <c r="B227">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>1</v>
+      </c>
+      <c r="B230">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B237" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>12</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B239" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B240" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>12</v>
+      </c>
+      <c r="B241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>8</v>
+      </c>
+      <c r="B242">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>10</v>
+      </c>
+      <c r="B243">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>9</v>
+      </c>
+      <c r="B244">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>11</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>10</v>
+      </c>
+      <c r="B246">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>9</v>
+      </c>
+      <c r="B247">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>10</v>
+      </c>
+      <c r="B248">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>11</v>
+      </c>
+      <c r="B249">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>10</v>
+      </c>
+      <c r="B251">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>11</v>
+      </c>
+      <c r="B252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>12</v>
+      </c>
+      <c r="B254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>8</v>
+      </c>
+      <c r="B255">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>7</v>
+      </c>
+      <c r="B256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>8</v>
+      </c>
+      <c r="B257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>9</v>
+      </c>
+      <c r="B258">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>10</v>
+      </c>
+      <c r="B259">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>12</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>13</v>
+      </c>
+      <c r="B261">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>14</v>
+      </c>
+      <c r="B262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B263" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>7</v>
+      </c>
+      <c r="B264">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B265" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B266" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B267" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B268" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B269" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>6</v>
+      </c>
+      <c r="B270">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>8</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>6</v>
+      </c>
+      <c r="B272">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B273" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>8</v>
+      </c>
+      <c r="B274">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B275" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>8</v>
+      </c>
+      <c r="B276">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>9</v>
+      </c>
+      <c r="B277">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>8</v>
+      </c>
+      <c r="B278">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B279" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>7</v>
+      </c>
+      <c r="B280">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>7</v>
+      </c>
+      <c r="B281">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>7</v>
+      </c>
+      <c r="B282">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>7</v>
+      </c>
+      <c r="B283">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>6</v>
+      </c>
+      <c r="B284">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>5</v>
+      </c>
+      <c r="B285">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>6</v>
+      </c>
+      <c r="B287">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>6</v>
+      </c>
+      <c r="B288">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B290" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>4</v>
+      </c>
+      <c r="B291">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>4</v>
+      </c>
+      <c r="B292">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7B6AF8-59D7-493A-9124-A868A77EBB30}">
   <dimension ref="A1:G292"/>
   <sheetViews>
@@ -24012,7 +26388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE465D-8AFC-4851-B8FF-C5CE318B9B44}">
   <dimension ref="A1:D250"/>
   <sheetViews>
@@ -27494,7 +29870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E73E4CD-23A2-4411-80E2-43A9214C2A71}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640884E4-F08B-4719-838F-EB26EF4C1948}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="1092" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5004" yWindow="948" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6326,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B174" workbookViewId="0">
-      <selection activeCell="G188" sqref="G188"/>
+    <sheetView tabSelected="1" topLeftCell="B177" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -13004,13 +13004,11 @@
       <c r="E179" s="9">
         <v>438540000</v>
       </c>
-      <c r="F179" t="e">
-        <f>VLOOKUP(A179,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G179" t="e">
-        <f>VLOOKUP(A179,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179">
+        <v>10</v>
       </c>
       <c r="H179" t="s">
         <v>1854</v>
@@ -13038,13 +13036,11 @@
       <c r="E180" s="9">
         <v>197680000</v>
       </c>
-      <c r="F180" t="e">
-        <f>VLOOKUP(A180,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G180" t="e">
-        <f>VLOOKUP(A180,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>10</v>
       </c>
       <c r="H180" t="s">
         <v>1856</v>
@@ -13074,12 +13070,10 @@
         <v>864152740</v>
       </c>
       <c r="F181">
-        <f>VLOOKUP(A181,map!$B$1:$I$230,4,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G181">
-        <f>VLOOKUP(A181,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H181" t="str">
         <f>VLOOKUP(A181,map!$B$1:$I$230,3,FALSE)</f>
@@ -13112,12 +13106,10 @@
         <v>586558277</v>
       </c>
       <c r="F182">
-        <f>VLOOKUP(A182,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <f>VLOOKUP(A182,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H182" t="str">
         <f>VLOOKUP(A182,map!$B$1:$I$230,3,FALSE)</f>
@@ -13150,12 +13142,10 @@
         <v>542795756</v>
       </c>
       <c r="F183">
-        <f>VLOOKUP(A183,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G183">
-        <f>VLOOKUP(A183,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H183" t="str">
         <f>VLOOKUP(A183,map!$B$1:$I$230,3,FALSE)</f>
@@ -13188,12 +13178,10 @@
         <v>742026668</v>
       </c>
       <c r="F184">
-        <f>VLOOKUP(A184,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <f>VLOOKUP(A184,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H184" t="str">
         <f>VLOOKUP(A184,map!$B$1:$I$230,3,FALSE)</f>
@@ -13302,12 +13290,10 @@
         <v>705424109</v>
       </c>
       <c r="F187">
-        <f>VLOOKUP(A187,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187">
-        <f>VLOOKUP(A187,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H187" t="str">
         <f>VLOOKUP(A187,map!$B$1:$I$230,3,FALSE)</f>
@@ -13382,8 +13368,7 @@
         <v>2</v>
       </c>
       <c r="G189">
-        <f>VLOOKUP(A189,map!$B$1:$I$230,5,FALSE)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H189" t="str">
         <f>VLOOKUP(A189,map!$B$1:$I$230,3,FALSE)</f>
@@ -13420,8 +13405,7 @@
         <v>2</v>
       </c>
       <c r="G190">
-        <f>VLOOKUP(A190,map!$B$1:$I$230,5,FALSE)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H190" t="str">
         <f>VLOOKUP(A190,map!$B$1:$I$230,3,FALSE)</f>
@@ -13454,12 +13438,10 @@
         <v>479099966</v>
       </c>
       <c r="F191">
-        <f>VLOOKUP(A191,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <f>VLOOKUP(A191,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H191" t="str">
         <f>VLOOKUP(A191,map!$B$1:$I$230,3,FALSE)</f>
@@ -13492,12 +13474,10 @@
         <v>446698483</v>
       </c>
       <c r="F192">
-        <f>VLOOKUP(A192,map!$B$1:$I$230,4,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192">
-        <f>VLOOKUP(A192,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H192" t="str">
         <f>VLOOKUP(A192,map!$B$1:$I$230,3,FALSE)</f>
@@ -13530,12 +13510,10 @@
         <v>542648184</v>
       </c>
       <c r="F193">
-        <f>VLOOKUP(A193,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G193">
-        <f>VLOOKUP(A193,map!$B$1:$I$230,5,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H193" t="str">
         <f>VLOOKUP(A193,map!$B$1:$I$230,3,FALSE)</f>
@@ -13568,12 +13546,10 @@
         <v>515886990</v>
       </c>
       <c r="F194">
-        <f>VLOOKUP(A194,map!$B$1:$I$230,4,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G194">
-        <f>VLOOKUP(A194,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H194" t="str">
         <f>VLOOKUP(A194,map!$B$1:$I$230,3,FALSE)</f>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{640884E4-F08B-4719-838F-EB26EF4C1948}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B8E1988-8582-491E-92B3-3EBEEFB57D3C}"/>
   <bookViews>
-    <workbookView xWindow="5004" yWindow="948" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7812" yWindow="780" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6326,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B177" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -10221,10 +10221,10 @@
         <v>458244178</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H104" t="str">
         <f>VLOOKUP(A104,map!$B$1:$I$230,3,FALSE)</f>
@@ -10757,12 +10757,10 @@
         <v>42707724</v>
       </c>
       <c r="F119">
-        <f>VLOOKUP(A119,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <f>VLOOKUP(A119,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H119" t="str">
         <f>VLOOKUP(A119,map!$B$1:$I$230,3,FALSE)</f>
@@ -11125,12 +11123,10 @@
         <v>461421891</v>
       </c>
       <c r="F129">
-        <f>VLOOKUP(A129,map!$B$1:$I$230,4,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G129">
-        <f>VLOOKUP(A129,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H129" t="str">
         <f>VLOOKUP(A129,map!$B$1:$I$230,3,FALSE)</f>
@@ -11163,7 +11159,7 @@
         <v>553418704</v>
       </c>
       <c r="F130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G130">
         <v>9</v>
@@ -11236,10 +11232,10 @@
         <v>697766499</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H132" t="str">
         <f>VLOOKUP(A132,map!$B$1:$I$230,3,FALSE)</f>
@@ -11348,8 +11344,7 @@
         <v>430990347</v>
       </c>
       <c r="F135">
-        <f>VLOOKUP(A135,map!$B$1:$I$230,4,FALSE)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G135">
         <f>VLOOKUP(A135,map!$B$1:$I$230,5,FALSE)</f>
@@ -11462,8 +11457,7 @@
         <v>608298372</v>
       </c>
       <c r="F138">
-        <f>VLOOKUP(A138,map!$B$1:$I$230,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G138">
         <f>VLOOKUP(A138,map!$B$1:$I$230,5,FALSE)</f>
@@ -11576,8 +11570,7 @@
         <v>877651360</v>
       </c>
       <c r="F141">
-        <f>VLOOKUP(A141,map!$B$1:$I$230,4,FALSE)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G141">
         <f>VLOOKUP(A141,map!$B$1:$I$230,5,FALSE)</f>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B8E1988-8582-491E-92B3-3EBEEFB57D3C}"/>
+  <xr:revisionPtr revIDLastSave="371" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E8BAA4-4083-4752-80B0-D3091A5F6C7A}"/>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="780" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6576" yWindow="624" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4029" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="1870">
   <si>
     <t>행정기관</t>
   </si>
@@ -5869,6 +5869,58 @@
   </si>
   <si>
     <t>서북구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장안구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수원시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권선구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔달구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영통구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중원구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분당구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처인구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기흥구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수지구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6326,8 +6378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B117" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="B114" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -9675,25 +9727,25 @@
         <f>VLOOKUP(B89,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>121092176</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="e">
         <f>VLOOKUP(A89,map!$B$1:$I$230,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G89">
+        <v>#N/A</v>
+      </c>
+      <c r="G89" t="e">
         <f>VLOOKUP(A89,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="H89" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H89" t="e">
         <f>VLOOKUP(A89,map!$B$1:$I$230,3,FALSE)</f>
-        <v>수원</v>
-      </c>
-      <c r="I89" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I89" t="e">
         <f>VLOOKUP(A89,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경기도</v>
-      </c>
-      <c r="J89" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J89" t="e">
         <f>VLOOKUP(A89,map!$B$1:$I$230,8,FALSE)</f>
-        <v>수원시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -9712,25 +9764,20 @@
       <c r="E90" s="9">
         <v>33300000</v>
       </c>
-      <c r="F90" t="e">
-        <f>VLOOKUP(A90,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G90" t="e">
-        <f>VLOOKUP(A90,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H90" t="e">
-        <f>VLOOKUP(A90,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I90" t="e">
-        <f>VLOOKUP(A90,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J90" t="e">
-        <f>VLOOKUP(A90,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1857</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -9749,25 +9796,20 @@
       <c r="E91" s="9">
         <v>47100000</v>
       </c>
-      <c r="F91" t="e">
-        <f>VLOOKUP(A91,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G91" t="e">
-        <f>VLOOKUP(A91,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H91" t="e">
-        <f>VLOOKUP(A91,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I91" t="e">
-        <f>VLOOKUP(A91,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" t="e">
-        <f>VLOOKUP(A91,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1859</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -9786,25 +9828,20 @@
       <c r="E92" s="9">
         <v>12900000</v>
       </c>
-      <c r="F92" t="e">
-        <f>VLOOKUP(A92,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G92" t="e">
-        <f>VLOOKUP(A92,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H92" t="e">
-        <f>VLOOKUP(A92,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I92" t="e">
-        <f>VLOOKUP(A92,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J92" t="e">
-        <f>VLOOKUP(A92,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F92">
+        <v>5</v>
+      </c>
+      <c r="G92">
+        <v>8</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J92" t="s">
+        <v>1860</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -9823,25 +9860,20 @@
       <c r="E93" s="9">
         <v>27700000</v>
       </c>
-      <c r="F93" t="e">
-        <f>VLOOKUP(A93,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G93" t="e">
-        <f>VLOOKUP(A93,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H93" t="e">
-        <f>VLOOKUP(A93,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I93" t="e">
-        <f>VLOOKUP(A93,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J93" t="e">
-        <f>VLOOKUP(A93,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1861</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -9861,25 +9893,25 @@
         <f>VLOOKUP(B94,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>141633070</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="e">
         <f>VLOOKUP(A94,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G94">
+        <v>#N/A</v>
+      </c>
+      <c r="G94" t="e">
         <f>VLOOKUP(A94,map!$B$1:$I$230,5,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="H94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H94" t="e">
         <f>VLOOKUP(A94,map!$B$1:$I$230,3,FALSE)</f>
-        <v>성남</v>
-      </c>
-      <c r="I94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I94" t="e">
         <f>VLOOKUP(A94,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경기도</v>
-      </c>
-      <c r="J94" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J94" t="e">
         <f>VLOOKUP(A94,map!$B$1:$I$230,8,FALSE)</f>
-        <v>성남시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -9898,25 +9930,20 @@
       <c r="E95" s="9">
         <v>46000000</v>
       </c>
-      <c r="F95" t="e">
-        <f>VLOOKUP(A95,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G95" t="e">
-        <f>VLOOKUP(A95,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H95" t="e">
-        <f>VLOOKUP(A95,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I95" t="e">
-        <f>VLOOKUP(A95,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J95" t="e">
-        <f>VLOOKUP(A95,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F95">
+        <v>6</v>
+      </c>
+      <c r="G95">
+        <v>8</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1862</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -9935,25 +9962,20 @@
       <c r="E96" s="9">
         <v>26390000</v>
       </c>
-      <c r="F96" t="e">
-        <f>VLOOKUP(A96,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G96" t="e">
-        <f>VLOOKUP(A96,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H96" t="e">
-        <f>VLOOKUP(A96,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I96" t="e">
-        <f>VLOOKUP(A96,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J96" t="e">
-        <f>VLOOKUP(A96,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F96">
+        <v>7</v>
+      </c>
+      <c r="G96">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1863</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -9972,25 +9994,20 @@
       <c r="E97" s="9">
         <v>69430000</v>
       </c>
-      <c r="F97" t="e">
-        <f>VLOOKUP(A97,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G97" t="e">
-        <f>VLOOKUP(A97,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H97" t="e">
-        <f>VLOOKUP(A97,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I97" t="e">
-        <f>VLOOKUP(A97,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J97" t="e">
-        <f>VLOOKUP(A97,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1864</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1865</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1864</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -10936,25 +10953,25 @@
         <f>VLOOKUP(B124,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>591259247</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="e">
         <f>VLOOKUP(A124,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G124">
+        <v>#N/A</v>
+      </c>
+      <c r="G124" t="e">
         <f>VLOOKUP(A124,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
-      </c>
-      <c r="H124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H124" t="e">
         <f>VLOOKUP(A124,map!$B$1:$I$230,3,FALSE)</f>
-        <v>용인</v>
-      </c>
-      <c r="I124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I124" t="e">
         <f>VLOOKUP(A124,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경기도</v>
-      </c>
-      <c r="J124" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J124" t="e">
         <f>VLOOKUP(A124,map!$B$1:$I$230,8,FALSE)</f>
-        <v>용인시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -10973,25 +10990,20 @@
       <c r="E125" s="9">
         <v>467600000</v>
       </c>
-      <c r="F125" t="e">
-        <f>VLOOKUP(A125,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G125" t="e">
-        <f>VLOOKUP(A125,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H125" t="e">
-        <f>VLOOKUP(A125,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
-        <f>VLOOKUP(A125,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J125" t="e">
-        <f>VLOOKUP(A125,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F125">
+        <v>7</v>
+      </c>
+      <c r="G125">
+        <v>9</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1866</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1866</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -11010,25 +11022,20 @@
       <c r="E126" s="9">
         <v>81700000</v>
       </c>
-      <c r="F126" t="e">
-        <f>VLOOKUP(A126,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G126" t="e">
-        <f>VLOOKUP(A126,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H126" t="e">
-        <f>VLOOKUP(A126,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I126" t="e">
-        <f>VLOOKUP(A126,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J126" t="e">
-        <f>VLOOKUP(A126,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F126">
+        <v>8</v>
+      </c>
+      <c r="G126">
+        <v>9</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1867</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -11047,25 +11054,20 @@
       <c r="E127" s="9">
         <v>42100000</v>
       </c>
-      <c r="F127" t="e">
-        <f>VLOOKUP(A127,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G127" t="e">
-        <f>VLOOKUP(A127,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H127" t="e">
-        <f>VLOOKUP(A127,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I127" t="e">
-        <f>VLOOKUP(A127,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J127" t="e">
-        <f>VLOOKUP(A127,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F127">
+        <v>8</v>
+      </c>
+      <c r="G127">
+        <v>8</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1868</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1869</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -29843,8 +29845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="J216" sqref="J216"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -30315,7 +30317,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -30344,7 +30346,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -30373,7 +30375,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -30402,7 +30404,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -30431,7 +30433,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -30457,7 +30459,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -30486,7 +30488,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -30515,7 +30517,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -30544,7 +30546,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -30573,7 +30575,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -30602,7 +30604,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -30631,7 +30633,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="7">
         <v>26</v>
       </c>
@@ -30660,7 +30662,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -30689,7 +30691,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="7">
         <v>28</v>
       </c>
@@ -30718,13 +30720,10 @@
         <v>920</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>1787</v>
-      </c>
       <c r="C31" s="7">
         <v>911628</v>
       </c>
@@ -30746,14 +30745,14 @@
       <c r="I31" s="7" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="8" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>1788</v>
-      </c>
       <c r="C32" s="7">
         <v>1125461</v>
       </c>
@@ -30774,6 +30773,9 @@
       </c>
       <c r="I32" s="7" t="s">
         <v>916</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -31041,9 +31043,6 @@
       <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>1797</v>
-      </c>
       <c r="C42" s="7">
         <v>915005</v>
       </c>
@@ -31064,6 +31063,9 @@
       </c>
       <c r="I42" s="7" t="s">
         <v>919</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="43" spans="1:10">

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="371" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E8BAA4-4083-4752-80B0-D3091A5F6C7A}"/>
+  <xr:revisionPtr revIDLastSave="440" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF7F7A3-5011-4701-8911-DCBAE3DCDF4B}"/>
   <bookViews>
-    <workbookView xWindow="6576" yWindow="624" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="1887">
   <si>
     <t>행정기관</t>
   </si>
@@ -5921,6 +5921,74 @@
   </si>
   <si>
     <t>용인시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상당구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서원구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥덕구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청원구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전주시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완산구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕진구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의창구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성산구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산합포구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마산회원구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진해구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창원시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6378,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B114" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="B264" workbookViewId="0">
+      <selection activeCell="K271" sqref="K271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -12358,25 +12426,25 @@
         <f>VLOOKUP(B162,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>940844524</v>
       </c>
-      <c r="F162">
+      <c r="F162" t="e">
         <f>VLOOKUP(A162,map!$B$1:$I$230,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G162">
+        <v>#N/A</v>
+      </c>
+      <c r="G162" t="e">
         <f>VLOOKUP(A162,map!$B$1:$I$230,5,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="H162" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H162" t="e">
         <f>VLOOKUP(A162,map!$B$1:$I$230,3,FALSE)</f>
-        <v>청주</v>
-      </c>
-      <c r="I162" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I162" t="e">
         <f>VLOOKUP(A162,map!$B$1:$I$230,7,FALSE)</f>
-        <v>충청북도</v>
-      </c>
-      <c r="J162" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J162" t="e">
         <f>VLOOKUP(A162,map!$B$1:$I$230,8,FALSE)</f>
-        <v>청주시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -12395,25 +12463,20 @@
       <c r="E163" s="9">
         <v>404440000</v>
       </c>
-      <c r="F163" t="e">
-        <f>VLOOKUP(A163,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G163" t="e">
-        <f>VLOOKUP(A163,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H163" t="e">
-        <f>VLOOKUP(A163,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I163" t="e">
-        <f>VLOOKUP(A163,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J163" t="e">
-        <f>VLOOKUP(A163,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F163">
+        <v>7</v>
+      </c>
+      <c r="G163">
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1870</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -12432,25 +12495,20 @@
       <c r="E164" s="9">
         <v>122590000</v>
       </c>
-      <c r="F164" t="e">
-        <f>VLOOKUP(A164,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G164" t="e">
-        <f>VLOOKUP(A164,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H164" t="e">
-        <f>VLOOKUP(A164,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I164" t="e">
-        <f>VLOOKUP(A164,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J164" t="e">
-        <f>VLOOKUP(A164,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164">
+        <v>12</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -12469,25 +12527,20 @@
       <c r="E165" s="9">
         <v>198270000</v>
       </c>
-      <c r="F165" t="e">
-        <f>VLOOKUP(A165,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G165" t="e">
-        <f>VLOOKUP(A165,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H165" t="e">
-        <f>VLOOKUP(A165,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I165" t="e">
-        <f>VLOOKUP(A165,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J165" t="e">
-        <f>VLOOKUP(A165,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="G165">
+        <v>11</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1872</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -12506,25 +12559,20 @@
       <c r="E166" s="9">
         <v>214990000</v>
       </c>
-      <c r="F166" t="e">
-        <f>VLOOKUP(A166,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G166" t="e">
-        <f>VLOOKUP(A166,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H166" t="e">
-        <f>VLOOKUP(A166,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I166" t="e">
-        <f>VLOOKUP(A166,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J166" t="e">
-        <f>VLOOKUP(A166,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1874</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1873</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -12734,25 +12782,25 @@
         <f>VLOOKUP(B172,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>81797648</v>
       </c>
-      <c r="F172">
+      <c r="F172" t="e">
         <f>VLOOKUP(A172,map!$B$1:$I$230,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G172">
+        <v>#N/A</v>
+      </c>
+      <c r="G172" t="e">
         <f>VLOOKUP(A172,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="H172" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H172" t="e">
         <f>VLOOKUP(A172,map!$B$1:$I$230,3,FALSE)</f>
-        <v>증평</v>
-      </c>
-      <c r="I172" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I172" t="e">
         <f>VLOOKUP(A172,map!$B$1:$I$230,7,FALSE)</f>
-        <v>충청북도</v>
-      </c>
-      <c r="J172" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J172" t="e">
         <f>VLOOKUP(A172,map!$B$1:$I$230,8,FALSE)</f>
-        <v>증평군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -12772,25 +12820,25 @@
         <f>VLOOKUP(B173,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>407303348</v>
       </c>
-      <c r="F173">
+      <c r="F173" t="e">
         <f>VLOOKUP(A173,map!$B$1:$I$230,4,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="G173">
+        <v>#N/A</v>
+      </c>
+      <c r="G173" t="e">
         <f>VLOOKUP(A173,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="H173" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H173" t="e">
         <f>VLOOKUP(A173,map!$B$1:$I$230,3,FALSE)</f>
-        <v>진천</v>
-      </c>
-      <c r="I173" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I173" t="e">
         <f>VLOOKUP(A173,map!$B$1:$I$230,7,FALSE)</f>
-        <v>충청북도</v>
-      </c>
-      <c r="J173" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J173" t="e">
         <f>VLOOKUP(A173,map!$B$1:$I$230,8,FALSE)</f>
-        <v>진천군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -12810,25 +12858,25 @@
         <f>VLOOKUP(B174,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>842189020</v>
       </c>
-      <c r="F174">
+      <c r="F174" t="e">
         <f>VLOOKUP(A174,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G174">
+        <v>#N/A</v>
+      </c>
+      <c r="G174" t="e">
         <f>VLOOKUP(A174,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="H174" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H174" t="e">
         <f>VLOOKUP(A174,map!$B$1:$I$230,3,FALSE)</f>
-        <v>괴산</v>
-      </c>
-      <c r="I174" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I174" t="e">
         <f>VLOOKUP(A174,map!$B$1:$I$230,7,FALSE)</f>
-        <v>충청북도</v>
-      </c>
-      <c r="J174" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J174" t="e">
         <f>VLOOKUP(A174,map!$B$1:$I$230,8,FALSE)</f>
-        <v>괴산군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -13614,25 +13662,25 @@
         <f>VLOOKUP(B196,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>206040841</v>
       </c>
-      <c r="F196">
+      <c r="F196" t="e">
         <f>VLOOKUP(A196,map!$B$1:$I$230,4,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="G196">
+        <v>#N/A</v>
+      </c>
+      <c r="G196" t="e">
         <f>VLOOKUP(A196,map!$B$1:$I$230,5,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="H196" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H196" t="e">
         <f>VLOOKUP(A196,map!$B$1:$I$230,3,FALSE)</f>
-        <v>전주</v>
-      </c>
-      <c r="I196" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I196" t="e">
         <f>VLOOKUP(A196,map!$B$1:$I$230,7,FALSE)</f>
-        <v>전라북도</v>
-      </c>
-      <c r="J196" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J196" t="e">
         <f>VLOOKUP(A196,map!$B$1:$I$230,8,FALSE)</f>
-        <v>전주시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -13651,25 +13699,20 @@
       <c r="E197" s="9">
         <v>92590000</v>
       </c>
-      <c r="F197" t="e">
-        <f>VLOOKUP(A197,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G197" t="e">
-        <f>VLOOKUP(A197,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H197" t="e">
-        <f>VLOOKUP(A197,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I197" t="e">
-        <f>VLOOKUP(A197,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J197" t="e">
-        <f>VLOOKUP(A197,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1876</v>
+      </c>
+      <c r="I197" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J197" t="s">
+        <v>1876</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -13688,25 +13731,20 @@
       <c r="E198" s="9">
         <v>112940000</v>
       </c>
-      <c r="F198" t="e">
-        <f>VLOOKUP(A198,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G198" t="e">
-        <f>VLOOKUP(A198,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H198" t="e">
-        <f>VLOOKUP(A198,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I198" t="e">
-        <f>VLOOKUP(A198,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J198" t="e">
-        <f>VLOOKUP(A198,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="G198">
+        <v>16</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I198" t="s">
+        <v>1875</v>
+      </c>
+      <c r="J198" t="s">
+        <v>1877</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -15245,25 +15283,20 @@
       <c r="E239" s="9">
         <v>393020000</v>
       </c>
-      <c r="F239" t="e">
-        <f>VLOOKUP(A239,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G239" t="e">
-        <f>VLOOKUP(A239,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H239" t="e">
-        <f>VLOOKUP(A239,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I239" t="e">
-        <f>VLOOKUP(A239,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J239" t="e">
-        <f>VLOOKUP(A239,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F239">
+        <v>11</v>
+      </c>
+      <c r="G239">
+        <v>11</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I239" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J239" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -15282,25 +15315,20 @@
       <c r="E240" s="9">
         <v>734720000</v>
       </c>
-      <c r="F240" t="e">
-        <f>VLOOKUP(A240,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G240" t="e">
-        <f>VLOOKUP(A240,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H240" t="e">
-        <f>VLOOKUP(A240,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I240" t="e">
-        <f>VLOOKUP(A240,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J240" t="e">
-        <f>VLOOKUP(A240,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F240">
+        <v>12</v>
+      </c>
+      <c r="G240">
+        <v>11</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I240" t="s">
+        <v>1880</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1879</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -16187,25 +16215,25 @@
         <f>VLOOKUP(B264,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>748032641</v>
       </c>
-      <c r="F264">
+      <c r="F264" t="e">
         <f>VLOOKUP(A264,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G264">
+        <v>#N/A</v>
+      </c>
+      <c r="G264" t="e">
         <f>VLOOKUP(A264,map!$B$1:$I$230,5,FALSE)</f>
-        <v>18</v>
-      </c>
-      <c r="H264" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H264" t="e">
         <f>VLOOKUP(A264,map!$B$1:$I$230,3,FALSE)</f>
-        <v>창원</v>
-      </c>
-      <c r="I264" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I264" t="e">
         <f>VLOOKUP(A264,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경상남도</v>
-      </c>
-      <c r="J264" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J264" t="e">
         <f>VLOOKUP(A264,map!$B$1:$I$230,8,FALSE)</f>
-        <v>창원시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -16224,25 +16252,20 @@
       <c r="E265" s="9">
         <v>211150000</v>
       </c>
-      <c r="F265" t="e">
-        <f>VLOOKUP(A265,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G265" t="e">
-        <f>VLOOKUP(A265,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H265" t="e">
-        <f>VLOOKUP(A265,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I265" t="e">
-        <f>VLOOKUP(A265,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J265" t="e">
-        <f>VLOOKUP(A265,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F265">
+        <v>8</v>
+      </c>
+      <c r="G265">
+        <v>17</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I265" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1881</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -16261,25 +16284,20 @@
       <c r="E266" s="9">
         <v>82220000</v>
       </c>
-      <c r="F266" t="e">
-        <f>VLOOKUP(A266,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G266" t="e">
-        <f>VLOOKUP(A266,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H266" t="e">
-        <f>VLOOKUP(A266,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I266" t="e">
-        <f>VLOOKUP(A266,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J266" t="e">
-        <f>VLOOKUP(A266,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F266">
+        <v>7</v>
+      </c>
+      <c r="G266">
+        <v>18</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I266" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -16298,25 +16316,20 @@
       <c r="E267" s="9">
         <v>241070000</v>
       </c>
-      <c r="F267" t="e">
-        <f>VLOOKUP(A267,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G267" t="e">
-        <f>VLOOKUP(A267,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H267" t="e">
-        <f>VLOOKUP(A267,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I267" t="e">
-        <f>VLOOKUP(A267,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J267" t="e">
-        <f>VLOOKUP(A267,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F267">
+        <v>6</v>
+      </c>
+      <c r="G267">
+        <v>18</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I267" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -16335,25 +16348,20 @@
       <c r="E268" s="9">
         <v>90580000</v>
       </c>
-      <c r="F268" t="e">
-        <f>VLOOKUP(A268,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G268" t="e">
-        <f>VLOOKUP(A268,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H268" t="e">
-        <f>VLOOKUP(A268,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I268" t="e">
-        <f>VLOOKUP(A268,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J268" t="e">
-        <f>VLOOKUP(A268,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F268">
+        <v>7</v>
+      </c>
+      <c r="G268">
+        <v>17</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1884</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -16372,25 +16380,20 @@
       <c r="E269" s="9">
         <v>122910000</v>
       </c>
-      <c r="F269" t="e">
-        <f>VLOOKUP(A269,map!$B$1:$I$230,4,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G269" t="e">
-        <f>VLOOKUP(A269,map!$B$1:$I$230,5,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H269" t="e">
-        <f>VLOOKUP(A269,map!$B$1:$I$230,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I269" t="e">
-        <f>VLOOKUP(A269,map!$B$1:$I$230,7,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J269" t="e">
-        <f>VLOOKUP(A269,map!$B$1:$I$230,8,FALSE)</f>
-        <v>#N/A</v>
+      <c r="F269">
+        <v>7</v>
+      </c>
+      <c r="G269">
+        <v>19</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1885</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1886</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1885</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -16486,25 +16489,25 @@
         <f>VLOOKUP(B272,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>398675093</v>
       </c>
-      <c r="F272">
+      <c r="F272" t="e">
         <f>VLOOKUP(A272,map!$B$1:$I$230,4,FALSE)</f>
-        <v>6</v>
-      </c>
-      <c r="G272">
+        <v>#N/A</v>
+      </c>
+      <c r="G272" t="e">
         <f>VLOOKUP(A272,map!$B$1:$I$230,5,FALSE)</f>
-        <v>18</v>
-      </c>
-      <c r="H272" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H272" t="e">
         <f>VLOOKUP(A272,map!$B$1:$I$230,3,FALSE)</f>
-        <v>사천</v>
-      </c>
-      <c r="I272" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I272" t="e">
         <f>VLOOKUP(A272,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경상남도</v>
-      </c>
-      <c r="J272" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J272" t="e">
         <f>VLOOKUP(A272,map!$B$1:$I$230,8,FALSE)</f>
-        <v>사천시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -16714,25 +16717,25 @@
         <f>VLOOKUP(B278,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>485604354</v>
       </c>
-      <c r="F278">
+      <c r="F278" t="e">
         <f>VLOOKUP(A278,map!$B$1:$I$230,4,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="G278">
+        <v>#N/A</v>
+      </c>
+      <c r="G278" t="e">
         <f>VLOOKUP(A278,map!$B$1:$I$230,5,FALSE)</f>
-        <v>17</v>
-      </c>
-      <c r="H278" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H278" t="e">
         <f>VLOOKUP(A278,map!$B$1:$I$230,3,FALSE)</f>
-        <v>양산</v>
-      </c>
-      <c r="I278" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I278" t="e">
         <f>VLOOKUP(A278,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경상남도</v>
-      </c>
-      <c r="J278" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J278" t="e">
         <f>VLOOKUP(A278,map!$B$1:$I$230,8,FALSE)</f>
-        <v>양산시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -16828,25 +16831,25 @@
         <f>VLOOKUP(B281,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>416602010</v>
       </c>
-      <c r="F281">
+      <c r="F281" t="e">
         <f>VLOOKUP(A281,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G281">
+        <v>#N/A</v>
+      </c>
+      <c r="G281" t="e">
         <f>VLOOKUP(A281,map!$B$1:$I$230,5,FALSE)</f>
-        <v>17</v>
-      </c>
-      <c r="H281" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H281" t="e">
         <f>VLOOKUP(A281,map!$B$1:$I$230,3,FALSE)</f>
-        <v>함안</v>
-      </c>
-      <c r="I281" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I281" t="e">
         <f>VLOOKUP(A281,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경상남도</v>
-      </c>
-      <c r="J281" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J281" t="e">
         <f>VLOOKUP(A281,map!$B$1:$I$230,8,FALSE)</f>
-        <v>함안군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -16904,25 +16907,25 @@
         <f>VLOOKUP(B283,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>517957151</v>
       </c>
-      <c r="F283">
+      <c r="F283" t="e">
         <f>VLOOKUP(A283,map!$B$1:$I$230,4,FALSE)</f>
-        <v>7</v>
-      </c>
-      <c r="G283">
+        <v>#N/A</v>
+      </c>
+      <c r="G283" t="e">
         <f>VLOOKUP(A283,map!$B$1:$I$230,5,FALSE)</f>
-        <v>19</v>
-      </c>
-      <c r="H283" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H283" t="e">
         <f>VLOOKUP(A283,map!$B$1:$I$230,3,FALSE)</f>
-        <v>고성(경남)</v>
-      </c>
-      <c r="I283" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I283" t="e">
         <f>VLOOKUP(A283,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경상남도</v>
-      </c>
-      <c r="J283" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J283" t="e">
         <f>VLOOKUP(A283,map!$B$1:$I$230,8,FALSE)</f>
-        <v>고성군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -29845,8 +29848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -31242,7 +31245,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" s="7">
         <v>47</v>
       </c>
@@ -31271,7 +31274,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -31300,7 +31303,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="7">
         <v>49</v>
       </c>
@@ -31329,7 +31332,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="7">
         <v>50</v>
       </c>
@@ -31358,13 +31361,10 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>1808</v>
-      </c>
       <c r="C53" s="7">
         <v>49559</v>
       </c>
@@ -31386,8 +31386,11 @@
       <c r="I53" s="7" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="8" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="7">
         <v>52</v>
       </c>
@@ -31416,7 +31419,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="7">
         <v>53</v>
       </c>
@@ -31445,7 +31448,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -31474,13 +31477,10 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>1812</v>
-      </c>
       <c r="C57" s="7">
         <v>106388</v>
       </c>
@@ -31502,8 +31502,11 @@
       <c r="I57" s="7" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" s="8" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="7">
         <v>56</v>
       </c>
@@ -31532,13 +31535,10 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>1814</v>
-      </c>
       <c r="C59" s="7">
         <v>282278</v>
       </c>
@@ -31560,8 +31560,11 @@
       <c r="I59" s="7" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="8" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="7">
         <v>58</v>
       </c>
@@ -31590,7 +31593,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="7">
         <v>59</v>
       </c>
@@ -31619,7 +31622,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="7">
         <v>60</v>
       </c>
@@ -31648,13 +31651,10 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>1818</v>
-      </c>
       <c r="C63" s="7">
         <v>1010040</v>
       </c>
@@ -31676,8 +31676,11 @@
       <c r="I63" s="7" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="8" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="7">
         <v>62</v>
       </c>
@@ -31706,7 +31709,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="7">
         <v>63</v>
       </c>
@@ -31735,13 +31738,10 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>1821</v>
-      </c>
       <c r="C66" s="7">
         <v>63142</v>
       </c>
@@ -31763,8 +31763,11 @@
       <c r="I66" s="7" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" s="8" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="7">
         <v>65</v>
       </c>
@@ -31793,7 +31796,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="7">
         <v>66</v>
       </c>
@@ -31822,7 +31825,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="7">
         <v>67</v>
       </c>
@@ -31851,7 +31854,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="7">
         <v>68</v>
       </c>
@@ -31880,7 +31883,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="7">
         <v>69</v>
       </c>
@@ -31909,7 +31912,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="7">
         <v>70</v>
       </c>
@@ -31938,7 +31941,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="7">
         <v>71</v>
       </c>
@@ -31967,7 +31970,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="7">
         <v>72</v>
       </c>
@@ -31996,7 +31999,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="7">
         <v>73</v>
       </c>
@@ -32025,7 +32028,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" s="7">
         <v>74</v>
       </c>
@@ -32054,7 +32057,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" s="7">
         <v>75</v>
       </c>
@@ -32083,7 +32086,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" s="7">
         <v>76</v>
       </c>
@@ -32112,7 +32115,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" s="7">
         <v>77</v>
       </c>
@@ -32141,7 +32144,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="7">
         <v>78</v>
       </c>
@@ -35418,7 +35421,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:10">
       <c r="A193" s="7">
         <v>191</v>
       </c>
@@ -35447,7 +35450,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:10">
       <c r="A194" s="7">
         <v>192</v>
       </c>
@@ -35476,7 +35479,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:10">
       <c r="A195" s="7">
         <v>193</v>
       </c>
@@ -35505,7 +35508,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:10">
       <c r="A196" s="7">
         <v>194</v>
       </c>
@@ -35534,7 +35537,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:10">
       <c r="A197" s="7">
         <v>195</v>
       </c>
@@ -35563,7 +35566,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:10">
       <c r="A198" s="7">
         <v>196</v>
       </c>
@@ -35592,7 +35595,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:10">
       <c r="A199" s="7">
         <v>197</v>
       </c>
@@ -35621,13 +35624,10 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:10">
       <c r="A200" s="7">
         <v>198</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>1674</v>
-      </c>
       <c r="C200" s="7">
         <v>630708</v>
       </c>
@@ -35649,8 +35649,11 @@
       <c r="I200" s="7" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="201" spans="1:9">
+      <c r="J200" s="8" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="7">
         <v>199</v>
       </c>
@@ -35679,7 +35682,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:10">
       <c r="A202" s="7">
         <v>200</v>
       </c>
@@ -35708,7 +35711,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:10">
       <c r="A203" s="7">
         <v>201</v>
       </c>
@@ -35737,7 +35740,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:10">
       <c r="A204" s="7">
         <v>202</v>
       </c>
@@ -35766,7 +35769,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:10">
       <c r="A205" s="7">
         <v>203</v>
       </c>
@@ -35795,7 +35798,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:10">
       <c r="A206" s="7">
         <v>204</v>
       </c>
@@ -35824,7 +35827,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:10">
       <c r="A207" s="7">
         <v>205</v>
       </c>
@@ -35853,7 +35856,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:10">
       <c r="A208" s="7">
         <v>206</v>
       </c>
@@ -36205,9 +36208,6 @@
       <c r="A220" s="7">
         <v>218</v>
       </c>
-      <c r="B220" s="8" t="s">
-        <v>1654</v>
-      </c>
       <c r="C220" s="7">
         <v>33297</v>
       </c>
@@ -36228,6 +36228,9 @@
       </c>
       <c r="I220" s="7" t="s">
         <v>974</v>
+      </c>
+      <c r="J220" s="8" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -36346,7 +36349,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:10">
       <c r="A225" s="7">
         <v>223</v>
       </c>
@@ -36375,7 +36378,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:10">
       <c r="A226" s="7">
         <v>224</v>
       </c>
@@ -36404,13 +36407,10 @@
         <v>969</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:10">
       <c r="A227" s="7">
         <v>225</v>
       </c>
-      <c r="B227" s="8" t="s">
-        <v>1647</v>
-      </c>
       <c r="C227" s="7">
         <v>34480</v>
       </c>
@@ -36432,14 +36432,14 @@
       <c r="I227" s="7" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="J227" s="8" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="7">
         <v>226</v>
       </c>
-      <c r="B228" s="8" t="s">
-        <v>1645</v>
-      </c>
       <c r="C228" s="7">
         <v>62809</v>
       </c>
@@ -36461,14 +36461,14 @@
       <c r="I228" s="7" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="J228" s="8" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="7">
         <v>227</v>
       </c>
-      <c r="B229" s="8" t="s">
-        <v>1646</v>
-      </c>
       <c r="C229" s="7">
         <v>790216</v>
       </c>
@@ -36490,8 +36490,11 @@
       <c r="I229" s="7" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="J229" s="8" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="7">
         <v>228</v>
       </c>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDF7F7A3-5011-4701-8911-DCBAE3DCDF4B}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77369DEE-0F99-43FD-9321-2B1BA4AA8870}"/>
   <bookViews>
     <workbookView xWindow="5748" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6446,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B264" workbookViewId="0">
-      <selection activeCell="K271" sqref="K271"/>
+    <sheetView tabSelected="1" topLeftCell="B198" workbookViewId="0">
+      <selection activeCell="F207" sqref="F207:G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -14068,25 +14068,25 @@
         <f>VLOOKUP(B207,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>789091740</v>
       </c>
-      <c r="F207">
+      <c r="F207" t="e">
         <f>VLOOKUP(A207,map!$B$1:$I$230,4,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="G207">
+        <v>#N/A</v>
+      </c>
+      <c r="G207" t="e">
         <f>VLOOKUP(A207,map!$B$1:$I$230,5,FALSE)</f>
-        <v>16</v>
-      </c>
-      <c r="H207" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H207" t="e">
         <f>VLOOKUP(A207,map!$B$1:$I$230,3,FALSE)</f>
-        <v>진안</v>
-      </c>
-      <c r="I207" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I207" t="e">
         <f>VLOOKUP(A207,map!$B$1:$I$230,7,FALSE)</f>
-        <v>전라북도</v>
-      </c>
-      <c r="J207" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J207" t="e">
         <f>VLOOKUP(A207,map!$B$1:$I$230,8,FALSE)</f>
-        <v>진안군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -29848,8 +29848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -35686,9 +35686,6 @@
       <c r="A202" s="7">
         <v>200</v>
       </c>
-      <c r="B202" s="8" t="s">
-        <v>1672</v>
-      </c>
       <c r="C202" s="7">
         <v>21917</v>
       </c>
@@ -35709,6 +35706,9 @@
       </c>
       <c r="I202" s="7" t="s">
         <v>1002</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="203" spans="1:10">

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77369DEE-0F99-43FD-9321-2B1BA4AA8870}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB4AD397-74D7-4115-B324-B17C1EB07057}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="528" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5748" yWindow="528" windowWidth="17280" windowHeight="11268" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6446,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B198" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207:G207"/>
+    <sheetView topLeftCell="B237" workbookViewId="0">
+      <selection activeCell="F252" sqref="F252:G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -15763,25 +15763,25 @@
         <f>VLOOKUP(B252,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>846120639</v>
       </c>
-      <c r="F252">
+      <c r="F252" t="e">
         <f>VLOOKUP(A252,map!$B$1:$I$230,4,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="G252">
+        <v>#N/A</v>
+      </c>
+      <c r="G252" t="e">
         <f>VLOOKUP(A252,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="H252" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H252" t="e">
         <f>VLOOKUP(A252,map!$B$1:$I$230,3,FALSE)</f>
-        <v>청송</v>
-      </c>
-      <c r="I252" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I252" t="e">
         <f>VLOOKUP(A252,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경상북도</v>
-      </c>
-      <c r="J252" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J252" t="e">
         <f>VLOOKUP(A252,map!$B$1:$I$230,8,FALSE)</f>
-        <v>청송군</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -29848,8 +29848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="D200" sqref="D200"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -32173,7 +32173,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" s="7">
         <v>79</v>
       </c>
@@ -32202,7 +32202,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="7">
         <v>80</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="7">
         <v>81</v>
       </c>
@@ -32260,7 +32260,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" s="7">
         <v>82</v>
       </c>
@@ -32289,7 +32289,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" s="7">
         <v>83</v>
       </c>
@@ -32318,7 +32318,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" s="7">
         <v>84</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" s="7">
         <v>85</v>
       </c>
@@ -32376,7 +32376,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="7">
         <v>86</v>
       </c>
@@ -32405,13 +32405,10 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="7">
         <v>87</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>1774</v>
-      </c>
       <c r="C89" s="7">
         <v>23804</v>
       </c>
@@ -32433,8 +32430,11 @@
       <c r="I89" s="7" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" s="8" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="7">
         <v>88</v>
       </c>
@@ -32463,7 +32463,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" s="7">
         <v>89</v>
       </c>
@@ -32492,7 +32492,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" s="7">
         <v>90</v>
       </c>
@@ -32521,7 +32521,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" s="7">
         <v>91</v>
       </c>
@@ -32550,7 +32550,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="7">
         <v>92</v>
       </c>
@@ -32579,7 +32579,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="7">
         <v>93</v>
       </c>
@@ -32608,7 +32608,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="7">
         <v>94</v>
       </c>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB4AD397-74D7-4115-B324-B17C1EB07057}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2B4A129-6BDD-40C0-81E5-9058A4DD08A6}"/>
   <bookViews>
     <workbookView xWindow="5748" yWindow="528" windowWidth="17280" windowHeight="11268" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15246,25 +15246,25 @@
         <f>VLOOKUP(B238,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>1130077695</v>
       </c>
-      <c r="F238">
+      <c r="F238" t="e">
         <f>VLOOKUP(A238,map!$B$1:$I$230,4,FALSE)</f>
-        <v>12</v>
-      </c>
-      <c r="G238">
+        <v>#N/A</v>
+      </c>
+      <c r="G238" t="e">
         <f>VLOOKUP(A238,map!$B$1:$I$230,5,FALSE)</f>
-        <v>11</v>
-      </c>
-      <c r="H238" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H238" t="e">
         <f>VLOOKUP(A238,map!$B$1:$I$230,3,FALSE)</f>
-        <v>포항</v>
-      </c>
-      <c r="I238" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="I238" t="e">
         <f>VLOOKUP(A238,map!$B$1:$I$230,7,FALSE)</f>
-        <v>경상북도</v>
-      </c>
-      <c r="J238" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="J238" t="e">
         <f>VLOOKUP(A238,map!$B$1:$I$230,8,FALSE)</f>
-        <v>포항시</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -29849,7 +29849,7 @@
   <dimension ref="A1:J230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -32467,9 +32467,6 @@
       <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>1772</v>
-      </c>
       <c r="C91" s="7">
         <v>488395</v>
       </c>
@@ -32490,6 +32487,9 @@
       </c>
       <c r="I91" s="7" t="s">
         <v>1033</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="92" spans="1:10">

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2B4A129-6BDD-40C0-81E5-9058A4DD08A6}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F4E14B-1637-4D0D-A297-88939254B243}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="528" windowWidth="17280" windowHeight="11268" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7224" yWindow="648" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6446,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView topLeftCell="B237" workbookViewId="0">
-      <selection activeCell="F252" sqref="F252:G252"/>
+    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -10167,7 +10167,7 @@
         <v>36600000</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G100">
         <v>7</v>
@@ -10199,7 +10199,7 @@
         <v>21930000</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G101">
         <v>7</v>
@@ -10766,8 +10766,7 @@
         <v>458115470</v>
       </c>
       <c r="F117">
-        <f>VLOOKUP(A117,map!$B$1:$I$230,4,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G117">
         <f>VLOOKUP(A117,map!$B$1:$I$230,5,FALSE)</f>
@@ -10917,7 +10916,7 @@
         <v>3</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H121" t="str">
         <f>VLOOKUP(A121,map!$B$1:$I$230,3,FALSE)</f>
@@ -10950,10 +10949,10 @@
         <v>53987611</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H122" t="str">
         <f>VLOOKUP(A122,map!$B$1:$I$230,3,FALSE)</f>
@@ -11414,11 +11413,10 @@
         <v>430990347</v>
       </c>
       <c r="F135">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G135">
-        <f>VLOOKUP(A135,map!$B$1:$I$230,5,FALSE)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H135" t="str">
         <f>VLOOKUP(A135,map!$B$1:$I$230,3,FALSE)</f>
@@ -11451,8 +11449,7 @@
         <v>310390297</v>
       </c>
       <c r="F136">
-        <f>VLOOKUP(A136,map!$B$1:$I$230,4,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G136">
         <f>VLOOKUP(A136,map!$B$1:$I$230,5,FALSE)</f>
@@ -29848,7 +29845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F4E14B-1637-4D0D-A297-88939254B243}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB40AD1-264C-456D-8639-24B3D18AA630}"/>
   <bookViews>
-    <workbookView xWindow="7224" yWindow="648" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8448" yWindow="636" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6446,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B109" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -11787,7 +11787,7 @@
         <v>1040783864</v>
       </c>
       <c r="F145">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G145">
         <f>VLOOKUP(A145,map!$B$1:$I$230,5,FALSE)</f>
@@ -11824,7 +11824,7 @@
         <v>180201980</v>
       </c>
       <c r="F146">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G146">
         <f>VLOOKUP(A146,map!$B$1:$I$230,5,FALSE)</f>
@@ -11973,7 +11973,7 @@
         <v>1820310462</v>
       </c>
       <c r="F150">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G150">
         <f>VLOOKUP(A150,map!$B$1:$I$230,5,FALSE)</f>
@@ -12010,7 +12010,7 @@
         <v>998066556</v>
       </c>
       <c r="F151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G151">
         <f>VLOOKUP(A151,map!$B$1:$I$230,5,FALSE)</f>
@@ -15498,7 +15498,7 @@
         <v>670089068</v>
       </c>
       <c r="F245">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G245">
         <f>VLOOKUP(A245,map!$B$1:$I$230,5,FALSE)</f>
@@ -15576,8 +15576,7 @@
         <v>9</v>
       </c>
       <c r="G247">
-        <f>VLOOKUP(A247,map!$B$1:$I$230,5,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H247" t="str">
         <f>VLOOKUP(A247,map!$B$1:$I$230,3,FALSE)</f>
@@ -16027,7 +16026,7 @@
         <v>661483887</v>
       </c>
       <c r="F259">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G259">
         <f>VLOOKUP(A259,map!$B$1:$I$230,5,FALSE)</f>
@@ -16064,7 +16063,7 @@
         <v>1202034344</v>
       </c>
       <c r="F260">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G260">
         <f>VLOOKUP(A260,map!$B$1:$I$230,5,FALSE)</f>
@@ -16101,7 +16100,7 @@
         <v>990043224</v>
       </c>
       <c r="F261">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G261">
         <f>VLOOKUP(A261,map!$B$1:$I$230,5,FALSE)</f>

--- a/files/city_info.xlsx
+++ b/files/city_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goe2427-my.sharepoint.com/personal/indiesoul_jeonghyeonh_goe_go_kr/Documents/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="461" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB40AD1-264C-456D-8639-24B3D18AA630}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="8_{F3416D8F-9CF4-4A1C-960B-C44887312CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39CD9FBF-EB95-4772-81A6-23F9D9C5EB36}"/>
   <bookViews>
-    <workbookView xWindow="8448" yWindow="636" windowWidth="17280" windowHeight="11268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
@@ -6446,8 +6446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.399999999999999"/>
@@ -10131,11 +10131,13 @@
         <f>VLOOKUP(B99,Sheet1!$C$4:$D$250,2,FALSE)</f>
         <v>58467312</v>
       </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-      <c r="G99">
-        <v>5</v>
+      <c r="F99" t="e">
+        <f>VLOOKUP(A99,map!$B$1:$I$230,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G99" t="e">
+        <f>VLOOKUP(A99,map!$B$1:$I$230,5,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="H99" t="e">
         <f>VLOOKUP(A99,map!$B$1:$I$230,3,FALSE)</f>
@@ -29844,8 +29846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73938B7-45EA-4E93-9563-C02936BF35F9}">
   <dimension ref="A1:J230"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
